--- a/pca/Component Matrix Analysis.xlsx
+++ b/pca/Component Matrix Analysis.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="10335" windowHeight="8775"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="10335" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Component Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="sorted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="94">
   <si>
     <t>Comp 1</t>
   </si>
@@ -197,9 +198,6 @@
   </si>
   <si>
     <t>宝贝与描述相符</t>
-  </si>
-  <si>
-    <t>卖家的服色态度</t>
   </si>
   <si>
     <t>卖家的发货速度</t>
@@ -277,6 +275,38 @@
   </si>
   <si>
     <t>seq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家的服务态度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp7</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +478,14 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -879,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,6 +925,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1239,13 +1280,13 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1334,1712 +1375,1712 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>0.194492985806652</v>
+        <v>0.430859136603362</v>
       </c>
       <c r="E2">
-        <v>0.26756997920292402</v>
+        <v>0.70580498903538602</v>
       </c>
       <c r="F2">
-        <v>0.772792668592302</v>
+        <v>-0.10267870858615701</v>
       </c>
       <c r="G2">
-        <v>-0.16974826613233501</v>
+        <v>0.38828351649786202</v>
       </c>
       <c r="H2">
-        <v>-6.8048491962862501E-2</v>
+        <v>-0.14186316056739301</v>
       </c>
       <c r="I2">
-        <v>-0.245135337762697</v>
+        <v>-3.4180571830143898E-2</v>
       </c>
       <c r="J2">
-        <v>1.84194297296456E-4</v>
+        <v>-7.4472508031688603E-2</v>
       </c>
       <c r="K2">
-        <v>0.27682968680980302</v>
+        <v>0.25061326097126402</v>
       </c>
       <c r="L2">
-        <v>-0.163694090754128</v>
+        <v>1.69196224642226E-2</v>
       </c>
       <c r="M2">
-        <v>8.5766043403552705E-2</v>
+        <v>-0.117705073096749</v>
       </c>
       <c r="N2">
-        <v>6.5024543036139901E-2</v>
+        <v>-3.33926884687634E-2</v>
       </c>
       <c r="O2">
-        <v>-0.17858427015626699</v>
+        <v>-6.0385042138506699E-2</v>
       </c>
       <c r="P2">
-        <v>-2.5917177113916799E-2</v>
+        <v>3.3417755930552399E-2</v>
       </c>
       <c r="Q2">
-        <v>0.15933319161107901</v>
+        <v>-2.7627800406305601E-2</v>
       </c>
       <c r="R2">
-        <v>-2.4282287757650099E-2</v>
+        <v>-0.13267070673564901</v>
       </c>
       <c r="S2">
-        <v>8.4099200120229201E-2</v>
+        <v>-6.5686774159784703E-2</v>
       </c>
       <c r="T2">
-        <v>0.116382210421067</v>
+        <v>5.3652408970519302E-2</v>
       </c>
       <c r="U2">
-        <v>-7.4014776141538702E-2</v>
+        <v>9.4096317217421094E-2</v>
       </c>
       <c r="V2">
-        <v>1.7597401420230399E-3</v>
+        <v>0.10392163192329699</v>
       </c>
       <c r="W2">
-        <v>1.2855101283758099E-2</v>
+        <v>3.1590568623461198E-3</v>
       </c>
       <c r="X2">
-        <v>-3.1589965155263099E-3</v>
+        <v>1.0192669957738701E-3</v>
       </c>
       <c r="Y2">
-        <v>-2.06668558592906E-3</v>
+        <v>-1.2898435177253901E-3</v>
       </c>
       <c r="Z2">
-        <v>6.0974106789223395E-4</v>
+        <v>1.58120597849358E-3</v>
       </c>
       <c r="AA2" s="1">
-        <v>-8.6749517700136306E-5</v>
+        <v>8.12923173148483E-5</v>
       </c>
       <c r="AB2" s="1">
-        <v>4.8656326970169699E-5</v>
+        <v>-2.76935073044262E-5</v>
       </c>
       <c r="AC2" s="1">
-        <v>-3.0654986108546702E-6</v>
+        <v>-8.8134451756485202E-7</v>
       </c>
       <c r="AD2" s="1">
-        <v>9.5490287520541598E-7</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
+        <v>-3.60015789918561E-6</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>-5.7601147291133599E-21</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>-0.96256021131482705</v>
+        <v>0.405377976910888</v>
       </c>
       <c r="E3">
-        <v>0.124717902885</v>
+        <v>0.74259066477696001</v>
       </c>
       <c r="F3">
-        <v>-3.4837634663948902E-2</v>
+        <v>-0.14802819512453999</v>
       </c>
       <c r="G3">
-        <v>-2.9799105142608698E-2</v>
+        <v>0.29677852253095999</v>
       </c>
       <c r="H3">
-        <v>6.6557337469689698E-2</v>
+        <v>-0.20914203746106599</v>
       </c>
       <c r="I3">
-        <v>8.1570319643716901E-2</v>
+        <v>-0.158636401953549</v>
       </c>
       <c r="J3">
-        <v>-0.121844323263855</v>
+        <v>-7.0880389733297799E-2</v>
       </c>
       <c r="K3">
-        <v>9.0342973048950004E-2</v>
+        <v>0.13217934434044101</v>
       </c>
       <c r="L3">
-        <v>-6.0036474362116003E-2</v>
+        <v>7.3742016973436797E-2</v>
       </c>
       <c r="M3">
-        <v>-6.0663107418405301E-3</v>
+        <v>-6.0507788349169499E-2</v>
       </c>
       <c r="N3">
-        <v>-7.1564784184102198E-2</v>
+        <v>-6.2852004551690099E-2</v>
       </c>
       <c r="O3">
-        <v>-6.2382962066909404E-3</v>
+        <v>4.8674450669224399E-2</v>
       </c>
       <c r="P3">
-        <v>-5.8761375598416897E-2</v>
+        <v>4.3015732105087599E-2</v>
       </c>
       <c r="Q3">
-        <v>-2.6411257062157401E-2</v>
+        <v>-6.9398094471930294E-2</v>
       </c>
       <c r="R3">
-        <v>-1.1039670242984599E-2</v>
+        <v>-0.200506109673003</v>
       </c>
       <c r="S3">
-        <v>-1.29911027898234E-2</v>
+        <v>4.81450218681563E-2</v>
       </c>
       <c r="T3">
-        <v>2.0504122828096601E-2</v>
+        <v>-6.7118465559849794E-2</v>
       </c>
       <c r="U3">
-        <v>2.8507391959080398E-2</v>
+        <v>-7.0782960360494807E-2</v>
       </c>
       <c r="V3">
-        <v>-3.1791152248026699E-2</v>
+        <v>-9.2753235895238706E-2</v>
       </c>
       <c r="W3">
-        <v>7.5998424303799494E-2</v>
+        <v>-1.00501746527526E-2</v>
       </c>
       <c r="X3">
-        <v>1.44047267226028E-2</v>
+        <v>-1.72844260129853E-3</v>
       </c>
       <c r="Y3">
-        <v>-1.51275780598685E-2</v>
+        <v>1.41654045108202E-3</v>
       </c>
       <c r="Z3">
-        <v>-3.2998538294902301E-3</v>
+        <v>-2.5450240317348798E-3</v>
       </c>
       <c r="AA3">
-        <v>2.2889670322985599E-4</v>
-      </c>
-      <c r="AB3">
-        <v>-4.5416786020031101E-3</v>
+        <v>-3.8891492996981001E-4</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-2.5311952982552801E-5</v>
       </c>
       <c r="AC3" s="1">
-        <v>-3.12576726631294E-6</v>
+        <v>4.6033366026495303E-6</v>
       </c>
       <c r="AD3" s="1">
-        <v>-4.9807243118611803E-5</v>
+        <v>-1.4897584411977801E-6</v>
       </c>
       <c r="AE3" s="1">
-        <v>-1.4487928537533201E-22</v>
+        <v>-5.21202074567736E-22</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>0.18229164137946</v>
+        <v>0.38235949226404098</v>
       </c>
       <c r="E4">
-        <v>0.46557902418340502</v>
+        <v>-0.46636771231143598</v>
       </c>
       <c r="F4">
-        <v>0.77430636641322104</v>
+        <v>0.28049831949408199</v>
       </c>
       <c r="G4">
-        <v>-2.7879801546269799E-2</v>
+        <v>0.56101573082197398</v>
       </c>
       <c r="H4">
-        <v>0.110532473477729</v>
+        <v>8.7419914874670504E-2</v>
       </c>
       <c r="I4">
-        <v>0.21507820606150799</v>
+        <v>0.100177520000436</v>
       </c>
       <c r="J4">
-        <v>-6.4113938148521704E-2</v>
+        <v>4.19009550954536E-2</v>
       </c>
       <c r="K4">
-        <v>-0.214788666093578</v>
+        <v>6.2389964787319903E-2</v>
       </c>
       <c r="L4">
-        <v>0.14225107020012501</v>
+        <v>2.41061503713954E-2</v>
       </c>
       <c r="M4">
-        <v>-2.1948179610302401E-2</v>
+        <v>-0.34429076760823701</v>
       </c>
       <c r="N4">
-        <v>-7.8484809394450093E-3</v>
+        <v>1.8483341325255399E-2</v>
       </c>
       <c r="O4">
-        <v>1.98486572519769E-2</v>
+        <v>0.134115887818473</v>
       </c>
       <c r="P4">
-        <v>6.7411786083533903E-2</v>
+        <v>-0.24787682721347901</v>
       </c>
       <c r="Q4">
-        <v>-0.115488432128528</v>
+        <v>-2.2660013061724101E-2</v>
       </c>
       <c r="R4">
-        <v>3.2633032464888102E-3</v>
+        <v>5.1396465091642703E-2</v>
       </c>
       <c r="S4">
-        <v>-3.3656929160344497E-2</v>
+        <v>0.114802194318174</v>
       </c>
       <c r="T4">
-        <v>1.9369362407695299E-2</v>
+        <v>6.1485973026240502E-2</v>
       </c>
       <c r="U4">
-        <v>-1.8205893702465201E-2</v>
+        <v>1.4373754774981999E-2</v>
       </c>
       <c r="V4">
-        <v>2.30595736094586E-3</v>
+        <v>-1.7610459362336101E-2</v>
       </c>
       <c r="W4">
-        <v>6.8279977840748603E-3</v>
+        <v>1.55495514165132E-3</v>
       </c>
       <c r="X4">
-        <v>-5.6978481345427805E-4</v>
+        <v>5.7263383498526998E-3</v>
       </c>
       <c r="Y4">
-        <v>-6.6112542140368998E-4</v>
+        <v>-1.35642702699333E-3</v>
       </c>
       <c r="Z4">
-        <v>3.3454145336072997E-4</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>-6.9216048251179307E-5</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1.56814673900846E-5</v>
+        <v>-6.0014257670835101E-4</v>
+      </c>
+      <c r="AA4">
+        <v>2.5764066945881901E-4</v>
+      </c>
+      <c r="AB4">
+        <v>4.7694945406003897E-4</v>
       </c>
       <c r="AC4" s="1">
-        <v>2.6986075619254899E-6</v>
+        <v>-2.3941681310623302E-6</v>
       </c>
       <c r="AD4" s="1">
-        <v>1.16449441162202E-7</v>
+        <v>8.4461812934364908E-6</v>
       </c>
       <c r="AE4" s="1">
-        <v>-1.34780304697067E-8</v>
+        <v>4.4548343224164797E-21</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>-0.182291641379459</v>
+        <v>0.31164724484682199</v>
       </c>
       <c r="E5">
-        <v>-0.46557902418340502</v>
+        <v>-0.44595170862908001</v>
       </c>
       <c r="F5">
-        <v>-0.77430636641322104</v>
+        <v>0.28630848280087001</v>
       </c>
       <c r="G5">
-        <v>2.7879801546269699E-2</v>
+        <v>0.45413099571670401</v>
       </c>
       <c r="H5">
-        <v>-0.110532473477729</v>
+        <v>-0.186175079203557</v>
       </c>
       <c r="I5">
-        <v>-0.21507820606150799</v>
+        <v>0.45300757804256198</v>
       </c>
       <c r="J5">
-        <v>6.4113938148521399E-2</v>
+        <v>0.16302517638008099</v>
       </c>
       <c r="K5">
-        <v>0.214788666093578</v>
+        <v>0.10635960115263</v>
       </c>
       <c r="L5">
-        <v>-0.14225107020012501</v>
+        <v>-5.5327343409655602E-2</v>
       </c>
       <c r="M5">
-        <v>2.1948179610302501E-2</v>
+        <v>7.1640266577346401E-2</v>
       </c>
       <c r="N5">
-        <v>7.8484809394449503E-3</v>
+        <v>-0.258247248458918</v>
       </c>
       <c r="O5">
-        <v>-1.9848657251977202E-2</v>
+        <v>-0.130098261708883</v>
       </c>
       <c r="P5">
-        <v>-6.7411786083533695E-2</v>
+        <v>-3.6268991827238202E-2</v>
       </c>
       <c r="Q5">
-        <v>0.115488432128528</v>
+        <v>0.15621624112830301</v>
       </c>
       <c r="R5">
-        <v>-3.2633032464894399E-3</v>
+        <v>-4.5896424742360702E-3</v>
       </c>
       <c r="S5">
-        <v>3.3656929160343997E-2</v>
+        <v>-0.12567600414764701</v>
       </c>
       <c r="T5">
-        <v>-1.93693624076933E-2</v>
+        <v>-5.5258618892715002E-2</v>
       </c>
       <c r="U5">
-        <v>1.8205893702463501E-2</v>
+        <v>-3.7236085684836898E-2</v>
       </c>
       <c r="V5">
-        <v>-2.30595736094619E-3</v>
+        <v>-1.56058149614876E-2</v>
       </c>
       <c r="W5">
-        <v>-6.8279977840733502E-3</v>
+        <v>-3.3197290135038499E-4</v>
       </c>
       <c r="X5">
-        <v>5.6978481345490201E-4</v>
-      </c>
-      <c r="Y5">
-        <v>6.6112542140371795E-4</v>
+        <v>-3.31816554257802E-4</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-5.7545991592672202E-5</v>
       </c>
       <c r="Z5">
-        <v>-3.3454145336019302E-4</v>
+        <v>1.6296026618099001E-4</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.9216048233802704E-5</v>
+        <v>9.5729812799032904E-5</v>
       </c>
       <c r="AB5" s="1">
-        <v>-1.5681467449274598E-5</v>
+        <v>2.80395832097091E-5</v>
       </c>
       <c r="AC5" s="1">
-        <v>-2.69860737672281E-6</v>
+        <v>8.6419887270503503E-7</v>
       </c>
       <c r="AD5" s="1">
-        <v>-1.16448889141907E-7</v>
+        <v>5.5825622861195404E-7</v>
       </c>
       <c r="AE5" s="1">
-        <v>-1.34780304697081E-8</v>
+        <v>5.7875484651953699E-22</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>0.15485367943286699</v>
+        <v>0.194492985806652</v>
       </c>
       <c r="E6">
-        <v>0.77873832281888899</v>
+        <v>0.26756997920292402</v>
       </c>
       <c r="F6">
-        <v>-9.3964795623518199E-2</v>
+        <v>0.772792668592302</v>
       </c>
       <c r="G6">
-        <v>0.28567421683338301</v>
+        <v>-0.16974826613233501</v>
       </c>
       <c r="H6">
-        <v>-0.214001453885416</v>
+        <v>-6.8048491962862501E-2</v>
       </c>
       <c r="I6">
-        <v>-9.0632875773776697E-2</v>
+        <v>-0.245135337762697</v>
       </c>
       <c r="J6">
-        <v>7.7086314948732207E-2</v>
+        <v>1.84194297296456E-4</v>
       </c>
       <c r="K6">
-        <v>0.26184250811042398</v>
+        <v>0.27682968680980302</v>
       </c>
       <c r="L6">
-        <v>0.159176156103812</v>
+        <v>-0.163694090754128</v>
       </c>
       <c r="M6">
-        <v>0.14052721210697999</v>
+        <v>8.5766043403552705E-2</v>
       </c>
       <c r="N6">
-        <v>-0.12298671400597801</v>
+        <v>6.5024543036139901E-2</v>
       </c>
       <c r="O6">
-        <v>-2.0764616731350698E-2</v>
+        <v>-0.17858427015626699</v>
       </c>
       <c r="P6">
-        <v>6.0563525519619701E-2</v>
+        <v>-2.5917177113916799E-2</v>
       </c>
       <c r="Q6">
-        <v>-7.3739671838904605E-2</v>
+        <v>0.15933319161107901</v>
       </c>
       <c r="R6">
-        <v>0.27373078242204102</v>
+        <v>-2.4282287757650099E-2</v>
       </c>
       <c r="S6">
-        <v>6.9961668255987597E-2</v>
+        <v>8.4099200120229201E-2</v>
       </c>
       <c r="T6">
-        <v>-3.16890448628507E-2</v>
+        <v>0.116382210421067</v>
       </c>
       <c r="U6">
-        <v>4.4044428311127901E-4</v>
+        <v>-7.4014776141538702E-2</v>
       </c>
       <c r="V6">
-        <v>1.73039531800233E-3</v>
+        <v>1.7597401420230399E-3</v>
       </c>
       <c r="W6">
-        <v>6.13681848930972E-3</v>
+        <v>1.2855101283758099E-2</v>
       </c>
       <c r="X6">
-        <v>2.59403539784302E-3</v>
+        <v>-3.1589965155263099E-3</v>
       </c>
       <c r="Y6">
-        <v>-2.9280851936154301E-3</v>
+        <v>-2.06668558592906E-3</v>
       </c>
       <c r="Z6">
-        <v>1.4853767667321899E-3</v>
-      </c>
-      <c r="AA6">
-        <v>1.5947393582354001E-4</v>
+        <v>6.0974106789223395E-4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-8.6749517700136306E-5</v>
       </c>
       <c r="AB6" s="1">
-        <v>3.43961504403787E-6</v>
+        <v>4.8656326970169699E-5</v>
       </c>
       <c r="AC6" s="1">
-        <v>-4.0319562776341204E-6</v>
+        <v>-3.0654986108546702E-6</v>
       </c>
       <c r="AD6" s="1">
-        <v>2.1650481179564302E-6</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>2.3357856370029502E-21</v>
+        <v>9.5490287520541598E-7</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>0.405377976910888</v>
+        <v>0.18229164137946</v>
       </c>
       <c r="E7">
-        <v>0.74259066477696001</v>
+        <v>0.46557902418340502</v>
       </c>
       <c r="F7">
-        <v>-0.14802819512453999</v>
+        <v>0.77430636641322104</v>
       </c>
       <c r="G7">
-        <v>0.29677852253095999</v>
+        <v>-2.7879801546269799E-2</v>
       </c>
       <c r="H7">
-        <v>-0.20914203746106599</v>
+        <v>0.110532473477729</v>
       </c>
       <c r="I7">
-        <v>-0.158636401953549</v>
+        <v>0.21507820606150799</v>
       </c>
       <c r="J7">
-        <v>-7.0880389733297799E-2</v>
+        <v>-6.4113938148521704E-2</v>
       </c>
       <c r="K7">
-        <v>0.13217934434044101</v>
+        <v>-0.214788666093578</v>
       </c>
       <c r="L7">
-        <v>7.3742016973436797E-2</v>
+        <v>0.14225107020012501</v>
       </c>
       <c r="M7">
-        <v>-6.0507788349169499E-2</v>
+        <v>-2.1948179610302401E-2</v>
       </c>
       <c r="N7">
-        <v>-6.2852004551690099E-2</v>
+        <v>-7.8484809394450093E-3</v>
       </c>
       <c r="O7">
-        <v>4.8674450669224399E-2</v>
+        <v>1.98486572519769E-2</v>
       </c>
       <c r="P7">
-        <v>4.3015732105087599E-2</v>
+        <v>6.7411786083533903E-2</v>
       </c>
       <c r="Q7">
-        <v>-6.9398094471930294E-2</v>
+        <v>-0.115488432128528</v>
       </c>
       <c r="R7">
-        <v>-0.200506109673003</v>
+        <v>3.2633032464888102E-3</v>
       </c>
       <c r="S7">
-        <v>4.81450218681563E-2</v>
+        <v>-3.3656929160344497E-2</v>
       </c>
       <c r="T7">
-        <v>-6.7118465559849794E-2</v>
+        <v>1.9369362407695299E-2</v>
       </c>
       <c r="U7">
-        <v>-7.0782960360494807E-2</v>
+        <v>-1.8205893702465201E-2</v>
       </c>
       <c r="V7">
-        <v>-9.2753235895238706E-2</v>
+        <v>2.30595736094586E-3</v>
       </c>
       <c r="W7">
-        <v>-1.00501746527526E-2</v>
+        <v>6.8279977840748603E-3</v>
       </c>
       <c r="X7">
-        <v>-1.72844260129853E-3</v>
+        <v>-5.6978481345427805E-4</v>
       </c>
       <c r="Y7">
-        <v>1.41654045108202E-3</v>
+        <v>-6.6112542140368998E-4</v>
       </c>
       <c r="Z7">
-        <v>-2.5450240317348798E-3</v>
-      </c>
-      <c r="AA7">
-        <v>-3.8891492996981001E-4</v>
+        <v>3.3454145336072997E-4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-6.9216048251179307E-5</v>
       </c>
       <c r="AB7" s="1">
-        <v>-2.5311952982552801E-5</v>
+        <v>1.56814673900846E-5</v>
       </c>
       <c r="AC7" s="1">
-        <v>4.6033366026495303E-6</v>
+        <v>2.6986075619254899E-6</v>
       </c>
       <c r="AD7" s="1">
-        <v>-1.4897584411977801E-6</v>
+        <v>1.16449441162202E-7</v>
       </c>
       <c r="AE7" s="1">
-        <v>-5.21202074567736E-22</v>
+        <v>-1.34780304697067E-8</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>0.430859136603362</v>
+        <v>0.16490089670965</v>
       </c>
       <c r="E8">
-        <v>0.70580498903538602</v>
+        <v>-0.461164228889064</v>
       </c>
       <c r="F8">
-        <v>-0.10267870858615701</v>
+        <v>0.16122315597845499</v>
       </c>
       <c r="G8">
-        <v>0.38828351649786202</v>
+        <v>0.54361530355614396</v>
       </c>
       <c r="H8">
-        <v>-0.14186316056739301</v>
+        <v>-0.12978378281933001</v>
       </c>
       <c r="I8">
-        <v>-3.4180571830143898E-2</v>
+        <v>6.3085298040521307E-2</v>
       </c>
       <c r="J8">
-        <v>-7.4472508031688603E-2</v>
+        <v>-0.40418308652424301</v>
       </c>
       <c r="K8">
-        <v>0.25061326097126402</v>
+        <v>-9.8312944314685499E-2</v>
       </c>
       <c r="L8">
-        <v>1.69196224642226E-2</v>
+        <v>-0.178908574503713</v>
       </c>
       <c r="M8">
-        <v>-0.117705073096749</v>
+        <v>0.411191579928532</v>
       </c>
       <c r="N8">
-        <v>-3.33926884687634E-2</v>
+        <v>0.16632717269068001</v>
       </c>
       <c r="O8">
-        <v>-6.0385042138506699E-2</v>
+        <v>1.1739724265838899E-2</v>
       </c>
       <c r="P8">
-        <v>3.3417755930552399E-2</v>
+        <v>-3.1038077810429901E-2</v>
       </c>
       <c r="Q8">
-        <v>-2.7627800406305601E-2</v>
+        <v>-9.7977521912765306E-2</v>
       </c>
       <c r="R8">
-        <v>-0.13267070673564901</v>
+        <v>-3.1215670448092502E-2</v>
       </c>
       <c r="S8">
-        <v>-6.5686774159784703E-2</v>
+        <v>5.7927931800823201E-2</v>
       </c>
       <c r="T8">
-        <v>5.3652408970519302E-2</v>
+        <v>-5.6285585171145097E-3</v>
       </c>
       <c r="U8">
-        <v>9.4096317217421094E-2</v>
+        <v>3.0372786975352901E-2</v>
       </c>
       <c r="V8">
-        <v>0.10392163192329699</v>
+        <v>4.1563901040823697E-3</v>
       </c>
       <c r="W8">
-        <v>3.1590568623461198E-3</v>
+        <v>-2.6620520673218701E-3</v>
       </c>
       <c r="X8">
-        <v>1.0192669957738701E-3</v>
+        <v>1.2084879257607899E-3</v>
       </c>
       <c r="Y8">
-        <v>-1.2898435177253901E-3</v>
+        <v>2.86926955355801E-3</v>
       </c>
       <c r="Z8">
-        <v>1.58120597849358E-3</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>8.12923173148483E-5</v>
+        <v>-1.05728811179973E-3</v>
+      </c>
+      <c r="AA8">
+        <v>1.77335053213012E-4</v>
       </c>
       <c r="AB8" s="1">
-        <v>-2.76935073044262E-5</v>
+        <v>-4.01302772182166E-5</v>
       </c>
       <c r="AC8" s="1">
-        <v>-8.8134451756485202E-7</v>
+        <v>1.4303025300158799E-6</v>
       </c>
       <c r="AD8" s="1">
-        <v>-3.60015789918561E-6</v>
+        <v>-2.4655508290694198E-6</v>
       </c>
       <c r="AE8" s="1">
-        <v>-5.7601147291133599E-21</v>
+        <v>-3.112904449371E-21</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>-0.97291109228992001</v>
+        <v>0.15485367943286699</v>
       </c>
       <c r="E9">
-        <v>0.15556854206444801</v>
+        <v>0.77873832281888899</v>
       </c>
       <c r="F9">
-        <v>-1.2871504469455E-2</v>
+        <v>-9.3964795623518199E-2</v>
       </c>
       <c r="G9">
-        <v>7.7851690892684997E-2</v>
+        <v>0.28567421683338301</v>
       </c>
       <c r="H9">
-        <v>-3.1326285651138999E-2</v>
+        <v>-0.214001453885416</v>
       </c>
       <c r="I9">
-        <v>-1.57158740956067E-3</v>
+        <v>-9.0632875773776697E-2</v>
       </c>
       <c r="J9">
-        <v>6.0500049598124703E-2</v>
+        <v>7.7086314948732207E-2</v>
       </c>
       <c r="K9">
-        <v>2.3688812644694902E-2</v>
+        <v>0.26184250811042398</v>
       </c>
       <c r="L9">
-        <v>1.37468265327821E-2</v>
+        <v>0.159176156103812</v>
       </c>
       <c r="M9">
-        <v>3.7046989022805399E-2</v>
+        <v>0.14052721210697999</v>
       </c>
       <c r="N9">
-        <v>4.33385812697102E-3</v>
+        <v>-0.12298671400597801</v>
       </c>
       <c r="O9">
-        <v>-3.0853117356713901E-2</v>
+        <v>-2.0764616731350698E-2</v>
       </c>
       <c r="P9">
-        <v>-4.4056210138360197E-2</v>
+        <v>6.0563525519619701E-2</v>
       </c>
       <c r="Q9">
-        <v>-3.6878742660967703E-2</v>
+        <v>-7.3739671838904605E-2</v>
       </c>
       <c r="R9">
-        <v>7.8379508918773495E-3</v>
+        <v>0.27373078242204102</v>
       </c>
       <c r="S9">
-        <v>-5.1559059996396497E-2</v>
+        <v>6.9961668255987597E-2</v>
       </c>
       <c r="T9">
-        <v>7.3282120498183001E-2</v>
+        <v>-3.16890448628507E-2</v>
       </c>
       <c r="U9">
-        <v>2.10824451659311E-2</v>
+        <v>4.4044428311127901E-4</v>
       </c>
       <c r="V9">
-        <v>-3.2949172318187503E-2</v>
+        <v>1.73039531800233E-3</v>
       </c>
       <c r="W9">
-        <v>-4.8342954174858399E-2</v>
+        <v>6.13681848930972E-3</v>
       </c>
       <c r="X9">
-        <v>-1.3087176382202601E-3</v>
+        <v>2.59403539784302E-3</v>
       </c>
       <c r="Y9">
-        <v>3.39887376792337E-3</v>
+        <v>-2.9280851936154301E-3</v>
       </c>
       <c r="Z9">
-        <v>-8.8658267698162898E-4</v>
+        <v>1.4853767667321899E-3</v>
       </c>
       <c r="AA9">
-        <v>-1.26355289211484E-4</v>
+        <v>1.5947393582354001E-4</v>
       </c>
       <c r="AB9" s="1">
-        <v>-4.7759882580194103E-5</v>
-      </c>
-      <c r="AC9">
-        <v>-2.4938712155287098E-3</v>
-      </c>
-      <c r="AD9">
-        <v>1.48450938560156E-4</v>
+        <v>3.43961504403787E-6</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>-4.0319562776341204E-6</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2.1650481179564302E-6</v>
       </c>
       <c r="AE9" s="1">
-        <v>-4.1395578559695498E-19</v>
+        <v>2.3357856370029502E-21</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D10">
-        <v>-0.97299119198008699</v>
+        <v>0.119873866376949</v>
       </c>
       <c r="E10">
-        <v>0.15546881399485399</v>
+        <v>-0.41641376806076702</v>
       </c>
       <c r="F10">
-        <v>-1.3395952592094701E-2</v>
+        <v>0.16759668851376</v>
       </c>
       <c r="G10">
-        <v>7.6998058499802999E-2</v>
+        <v>8.6616443118685105E-2</v>
       </c>
       <c r="H10">
-        <v>-3.0511868226744399E-2</v>
+        <v>0.67295183732556796</v>
       </c>
       <c r="I10">
-        <v>-2.1127288563735401E-3</v>
+        <v>-0.148107132005867</v>
       </c>
       <c r="J10">
-        <v>6.0029988284529899E-2</v>
+        <v>0.41239190510316898</v>
       </c>
       <c r="K10">
-        <v>2.45180337284772E-2</v>
+        <v>0.13939372187371901</v>
       </c>
       <c r="L10">
-        <v>1.49590956016306E-2</v>
+        <v>4.61763497148001E-2</v>
       </c>
       <c r="M10">
-        <v>3.6452529760259901E-2</v>
+        <v>0.17270298972828901</v>
       </c>
       <c r="N10">
-        <v>4.2321915360661704E-3</v>
+        <v>-0.200868258853066</v>
       </c>
       <c r="O10">
-        <v>-3.2518185453003001E-2</v>
+        <v>-8.7121419370260397E-2</v>
       </c>
       <c r="P10">
-        <v>-4.4907409388799301E-2</v>
+        <v>3.9563986583796701E-2</v>
       </c>
       <c r="Q10">
-        <v>-3.5670802043455803E-2</v>
+        <v>-0.12642156613137301</v>
       </c>
       <c r="R10">
-        <v>9.2223020229998207E-3</v>
+        <v>-8.54605693456197E-2</v>
       </c>
       <c r="S10">
-        <v>-5.1109593034575303E-2</v>
+        <v>7.3944848475555894E-2</v>
       </c>
       <c r="T10">
-        <v>7.3548294097582997E-2</v>
+        <v>-1.5287615572901E-2</v>
       </c>
       <c r="U10">
-        <v>2.1661677086684501E-2</v>
+        <v>4.3289175687146297E-2</v>
       </c>
       <c r="V10">
-        <v>-3.32201747233681E-2</v>
+        <v>2.1672012771133198E-3</v>
       </c>
       <c r="W10">
-        <v>-4.7466072845645302E-2</v>
+        <v>-3.18381302702211E-3</v>
       </c>
       <c r="X10">
-        <v>-4.62872249765727E-4</v>
+        <v>-7.1107892313173704E-4</v>
       </c>
       <c r="Y10">
-        <v>3.8634698631860999E-3</v>
+        <v>1.0545808685482501E-3</v>
       </c>
       <c r="Z10">
-        <v>-9.0474457972535905E-4</v>
-      </c>
-      <c r="AA10">
-        <v>-5.3462730381229702E-4</v>
-      </c>
-      <c r="AB10">
-        <v>1.5494659054369E-4</v>
-      </c>
-      <c r="AC10">
-        <v>1.06439564424221E-3</v>
-      </c>
-      <c r="AD10">
-        <v>-1.56408919228631E-3</v>
+        <v>-1.10138776482813E-3</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-4.3396279813051001E-5</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-5.1276599829936597E-5</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>-1.37731067497572E-6</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>-2.5627853394902302E-6</v>
       </c>
       <c r="AE10" s="1">
-        <v>-2.31424866209116E-18</v>
+        <v>-3.6736258918691197E-21</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-0.97290182403708803</v>
+        <v>1.58662574118307E-2</v>
       </c>
       <c r="E11">
-        <v>0.15683203206006199</v>
+        <v>0.53939989657951204</v>
       </c>
       <c r="F11">
-        <v>-1.3665188232793E-2</v>
+        <v>0.67488419847093695</v>
       </c>
       <c r="G11">
-        <v>7.7298621847831206E-2</v>
+        <v>-0.164841445607602</v>
       </c>
       <c r="H11">
-        <v>-2.9935687754081199E-2</v>
+        <v>1.7983445831853601E-2</v>
       </c>
       <c r="I11">
-        <v>-2.8126943281672101E-3</v>
+        <v>-0.26850927572043398</v>
       </c>
       <c r="J11">
-        <v>5.8945688239747801E-2</v>
+        <v>8.3309977768563602E-3</v>
       </c>
       <c r="K11">
-        <v>2.4336858170779699E-2</v>
+        <v>7.4869192665925604E-3</v>
       </c>
       <c r="L11">
-        <v>1.42244774023008E-2</v>
+        <v>-0.27913935316516197</v>
       </c>
       <c r="M11">
-        <v>3.6676057361897399E-2</v>
+        <v>-6.0627215702547099E-3</v>
       </c>
       <c r="N11">
-        <v>3.4513691569852899E-3</v>
+        <v>-3.8934736823578002E-2</v>
       </c>
       <c r="O11">
-        <v>-3.2504112217247902E-2</v>
+        <v>0.118231533520226</v>
       </c>
       <c r="P11">
-        <v>-4.4150240800746997E-2</v>
+        <v>-0.15803977051138299</v>
       </c>
       <c r="Q11">
-        <v>-3.6075383488944901E-2</v>
+        <v>6.7416516575155294E-2</v>
       </c>
       <c r="R11">
-        <v>8.0430139092049508E-3</v>
+        <v>2.4562307637300398E-2</v>
       </c>
       <c r="S11">
-        <v>-5.0904779637863697E-2</v>
+        <v>-4.1024116860233897E-2</v>
       </c>
       <c r="T11">
-        <v>7.3173397265733006E-2</v>
+        <v>-0.133444172906652</v>
       </c>
       <c r="U11">
-        <v>2.16236640196136E-2</v>
+        <v>9.8485536985485303E-2</v>
       </c>
       <c r="V11">
-        <v>-3.2821731489362398E-2</v>
+        <v>-1.31591218686064E-2</v>
       </c>
       <c r="W11">
-        <v>-4.7851707204821799E-2</v>
+        <v>-2.5184746401350301E-2</v>
       </c>
       <c r="X11">
-        <v>-1.5470870724727901E-3</v>
+        <v>4.4582895769763597E-3</v>
       </c>
       <c r="Y11">
-        <v>3.69313715024006E-3</v>
+        <v>3.8821926117961199E-3</v>
       </c>
       <c r="Z11">
-        <v>-9.5225189931545803E-4</v>
+        <v>-1.1521126855076401E-3</v>
       </c>
       <c r="AA11">
-        <v>6.5178309255747402E-4</v>
-      </c>
-      <c r="AB11">
-        <v>-1.87208837711686E-4</v>
-      </c>
-      <c r="AC11">
-        <v>1.43602598073921E-3</v>
-      </c>
-      <c r="AD11">
-        <v>1.41505509200009E-3</v>
+        <v>2.9811534693846998E-4</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-5.9238185359651298E-5</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>-1.8173078097054899E-6</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>-1.6130496997801199E-6</v>
       </c>
       <c r="AE11" s="1">
-        <v>2.7303896695253001E-18</v>
+        <v>-2.3710369649951602E-21</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>-0.89129883210810601</v>
+        <v>7.7548412217682203E-3</v>
       </c>
       <c r="E12">
-        <v>0.176710733848566</v>
+        <v>-0.195773137843999</v>
       </c>
       <c r="F12">
-        <v>-8.6818479870772305E-2</v>
+        <v>0.18107447322127301</v>
       </c>
       <c r="G12">
-        <v>-5.0770575761006999E-2</v>
+        <v>-0.45981574021076699</v>
       </c>
       <c r="H12">
-        <v>4.7297271357595601E-2</v>
+        <v>-0.49149899255909701</v>
       </c>
       <c r="I12">
-        <v>0.106799161919559</v>
+        <v>0.46148429328398999</v>
       </c>
       <c r="J12">
-        <v>-2.46503927123423E-2</v>
+        <v>0.34615382508071701</v>
       </c>
       <c r="K12">
-        <v>4.6100923784032903E-2</v>
+        <v>0.302560945829981</v>
       </c>
       <c r="L12">
-        <v>-0.27910783770535902</v>
+        <v>-2.6319252162813899E-2</v>
       </c>
       <c r="M12">
-        <v>-4.1219258854685602E-2</v>
+        <v>4.1171763520080402E-2</v>
       </c>
       <c r="N12">
-        <v>-0.108390530734673</v>
+        <v>0.14062611490371801</v>
       </c>
       <c r="O12">
-        <v>3.2909647309880601E-2</v>
+        <v>7.73670608087106E-2</v>
       </c>
       <c r="P12">
-        <v>-0.104427145345717</v>
+        <v>2.70119375868309E-2</v>
       </c>
       <c r="Q12">
-        <v>-0.13882432069821801</v>
-      </c>
-      <c r="R12" s="1">
-        <v>-2.3118476352630899E-5</v>
+        <v>-0.101544399942532</v>
+      </c>
+      <c r="R12">
+        <v>-5.69629113798093E-2</v>
       </c>
       <c r="S12">
-        <v>2.78691927781551E-2</v>
+        <v>7.9546177459898795E-2</v>
       </c>
       <c r="T12">
-        <v>-4.3033058051163399E-2</v>
+        <v>-1.4190412535351899E-2</v>
       </c>
       <c r="U12">
-        <v>-0.12108756973031</v>
+        <v>4.98615638395664E-2</v>
       </c>
       <c r="V12">
-        <v>7.9259410932705901E-2</v>
+        <v>-3.3326095232721299E-3</v>
       </c>
       <c r="W12">
-        <v>-3.7490174280277899E-2</v>
+        <v>-4.3709606741975E-3</v>
       </c>
       <c r="X12">
-        <v>-4.2646036464485003E-3</v>
+        <v>2.6831846292115001E-3</v>
       </c>
       <c r="Y12">
-        <v>-1.2122858608046501E-2</v>
+        <v>1.2870023807846501E-3</v>
       </c>
       <c r="Z12">
-        <v>-1.0751976767983199E-2</v>
-      </c>
-      <c r="AA12">
-        <v>7.2166059609290296E-4</v>
-      </c>
-      <c r="AB12">
-        <v>-1.16665772042527E-4</v>
+        <v>-7.5293066267076501E-4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>9.3324111186479799E-5</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>-6.7353346052180703E-5</v>
       </c>
       <c r="AC12" s="1">
-        <v>7.6967169662563201E-6</v>
+        <v>3.0183358788372098E-6</v>
       </c>
       <c r="AD12" s="1">
-        <v>-1.1573120997916501E-5</v>
+        <v>4.0781671140403498E-8</v>
       </c>
       <c r="AE12" s="1">
-        <v>-1.5579933082925599E-20</v>
+        <v>2.0138483314087799E-21</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>-0.65825878761228496</v>
+        <v>-0.10551739552131099</v>
       </c>
       <c r="E13">
-        <v>7.4398860684340897E-3</v>
+        <v>-0.73446704151912001</v>
       </c>
       <c r="F13">
-        <v>7.7494992281497102E-2</v>
+        <v>0.29513234422490298</v>
       </c>
       <c r="G13">
-        <v>-6.2438764975345999E-2</v>
+        <v>-4.4776509699488796E-3</v>
       </c>
       <c r="H13">
-        <v>0.33025886008580402</v>
+        <v>-0.102806624823154</v>
       </c>
       <c r="I13">
-        <v>0.31668426680712802</v>
+        <v>-0.25146559671241198</v>
       </c>
       <c r="J13">
-        <v>-0.45151635841889098</v>
+        <v>-0.111705289329718</v>
       </c>
       <c r="K13">
-        <v>0.22493807020995299</v>
+        <v>0.26504356965453102</v>
       </c>
       <c r="L13">
-        <v>6.9743623433472401E-2</v>
+        <v>-2.2245059901172801E-2</v>
       </c>
       <c r="M13">
-        <v>-0.106113901549429</v>
+        <v>2.4956421959490101E-2</v>
       </c>
       <c r="N13">
-        <v>-3.8455867928817097E-2</v>
+        <v>-0.16676814383626301</v>
       </c>
       <c r="O13">
-        <v>-3.44168477962477E-2</v>
+        <v>0.35683546180685299</v>
       </c>
       <c r="P13">
-        <v>0.192330528536728</v>
+        <v>0.19764813151874799</v>
       </c>
       <c r="Q13">
-        <v>0.14236690361380699</v>
+        <v>-1.5435015726225999E-2</v>
       </c>
       <c r="R13">
-        <v>5.8775865644004896E-3</v>
+        <v>9.5187272886279092E-3</v>
       </c>
       <c r="S13">
-        <v>0.104792449731804</v>
+        <v>-7.9095001153895006E-2</v>
       </c>
       <c r="T13">
-        <v>-4.2155831389323897E-2</v>
+        <v>5.78228510104545E-2</v>
       </c>
       <c r="U13">
-        <v>3.6930022566028203E-2</v>
+        <v>-2.2199661964425101E-2</v>
       </c>
       <c r="V13">
-        <v>-4.67294081357274E-3</v>
+        <v>3.9419302230352402E-3</v>
       </c>
       <c r="W13">
-        <v>-5.1340701384965402E-2</v>
+        <v>-7.3937837901529501E-4</v>
       </c>
       <c r="X13">
-        <v>6.2240102460626098E-3</v>
+        <v>-1.3835313371681501E-3</v>
       </c>
       <c r="Y13">
-        <v>2.0925551817590499E-3</v>
+        <v>-2.4273223200732001E-3</v>
       </c>
       <c r="Z13">
-        <v>-2.4627410991593401E-3</v>
+        <v>1.07833505008789E-4</v>
       </c>
       <c r="AA13">
-        <v>1.01649051147534E-3</v>
+        <v>-3.07086132144942E-4</v>
       </c>
       <c r="AB13" s="1">
-        <v>-9.5253059255949896E-5</v>
+        <v>1.9995931190286701E-5</v>
       </c>
       <c r="AC13" s="1">
-        <v>-5.8680808748345897E-6</v>
+        <v>6.7914365747635399E-6</v>
       </c>
       <c r="AD13" s="1">
-        <v>-6.5795685984280501E-6</v>
+        <v>2.3669979744761901E-7</v>
       </c>
       <c r="AE13" s="1">
-        <v>-1.1483445290072699E-20</v>
+        <v>2.0586221965315599E-21</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>-0.62733850284583204</v>
+        <v>-0.120472783194291</v>
       </c>
       <c r="E14">
-        <v>-0.103947033360304</v>
+        <v>-0.74509802610943798</v>
       </c>
       <c r="F14">
-        <v>0.105906051708029</v>
+        <v>0.28044272987899599</v>
       </c>
       <c r="G14">
-        <v>0.29859625246532001</v>
+        <v>-2.8569745965251501E-4</v>
       </c>
       <c r="H14">
-        <v>-0.24840452334253199</v>
+        <v>-3.2026314197449703E-2</v>
       </c>
       <c r="I14">
-        <v>-9.2689888987928501E-2</v>
+        <v>-0.22017899145113501</v>
       </c>
       <c r="J14">
-        <v>0.21207988362469801</v>
+        <v>-0.156778868138402</v>
       </c>
       <c r="K14">
-        <v>-0.32113535103056801</v>
+        <v>0.294789995246659</v>
       </c>
       <c r="L14">
-        <v>-0.37048790042018898</v>
+        <v>4.6825705707896598E-2</v>
       </c>
       <c r="M14">
-        <v>-0.190552508173046</v>
+        <v>-0.19866094493990899</v>
       </c>
       <c r="N14">
-        <v>-4.8052989596997102E-2</v>
+        <v>0.198897997218106</v>
       </c>
       <c r="O14">
-        <v>-9.5740800761602504E-2</v>
+        <v>-0.24426396060747099</v>
       </c>
       <c r="P14">
-        <v>0.29173618573572202</v>
+        <v>2.8782246747089901E-2</v>
       </c>
       <c r="Q14">
-        <v>-1.9068239322923099E-2</v>
+        <v>-0.17589275649441</v>
       </c>
       <c r="R14">
-        <v>2.1165838032459701E-2</v>
+        <v>4.6825713979764198E-2</v>
       </c>
       <c r="S14">
-        <v>6.8116991536491603E-2</v>
+        <v>-9.5130938236341306E-2</v>
       </c>
       <c r="T14">
-        <v>4.7215155394712601E-3</v>
+        <v>-8.0461851863136202E-2</v>
       </c>
       <c r="U14">
-        <v>3.2442937505565997E-2</v>
+        <v>-1.16950557006176E-2</v>
       </c>
       <c r="V14">
-        <v>-1.1077178784151801E-2</v>
+        <v>-1.3006845989853501E-2</v>
       </c>
       <c r="W14">
-        <v>5.99422577327455E-3</v>
+        <v>2.1517782992226198E-3</v>
       </c>
       <c r="X14">
-        <v>7.8041326520504205E-4</v>
-      </c>
-      <c r="Y14">
-        <v>-4.0571209352885402E-3</v>
-      </c>
-      <c r="Z14">
-        <v>1.51669623484333E-3</v>
-      </c>
-      <c r="AA14">
-        <v>-1.5156377353676899E-3</v>
+        <v>-1.94262129486822E-3</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>7.4406369670132598E-6</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-5.1462764891177302E-5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-3.3068019121578401E-5</v>
       </c>
       <c r="AB14" s="1">
-        <v>3.07441585483272E-5</v>
+        <v>1.1733764763137499E-5</v>
       </c>
       <c r="AC14" s="1">
-        <v>4.2228108215093199E-6</v>
+        <v>-1.1144179145831799E-6</v>
       </c>
       <c r="AD14" s="1">
-        <v>7.01493012363289E-6</v>
+        <v>5.0670013789728299E-7</v>
       </c>
       <c r="AE14" s="1">
-        <v>1.3220634021174001E-20</v>
+        <v>3.37493876868089E-22</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>-0.95315407485358605</v>
+        <v>-0.14778198983723401</v>
       </c>
       <c r="E15">
-        <v>0.11161523241851599</v>
+        <v>-0.52082210378197602</v>
       </c>
       <c r="F15">
-        <v>-3.8078147429325603E-2</v>
+        <v>0.16906127031337001</v>
       </c>
       <c r="G15">
-        <v>-4.8839474921930998E-2</v>
+        <v>-0.31020982523527701</v>
       </c>
       <c r="H15">
-        <v>5.6294110473553198E-2</v>
+        <v>-0.48462109526305203</v>
       </c>
       <c r="I15">
-        <v>9.7580905341510496E-2</v>
+        <v>-0.190127280423948</v>
       </c>
       <c r="J15">
-        <v>-0.11593216561562</v>
+        <v>-0.233131357440337</v>
       </c>
       <c r="K15">
-        <v>9.0801940445805002E-2</v>
+        <v>-0.20723745685002001</v>
       </c>
       <c r="L15">
-        <v>-0.12436929839802099</v>
+        <v>0.23603632976045</v>
       </c>
       <c r="M15">
-        <v>-2.8863737303624799E-2</v>
+        <v>-1.28410791406897E-2</v>
       </c>
       <c r="N15">
-        <v>-0.10736823292868899</v>
+        <v>-0.34577780558925603</v>
       </c>
       <c r="O15">
-        <v>1.80368027886545E-2</v>
+        <v>-0.12546378951474699</v>
       </c>
       <c r="P15">
-        <v>-6.3372546458787593E-2</v>
+        <v>-0.10844626230863599</v>
       </c>
       <c r="Q15">
-        <v>-6.4079816440303694E-2</v>
+        <v>-3.9907040240208198E-2</v>
       </c>
       <c r="R15">
-        <v>-1.4089811909582301E-2</v>
+        <v>-3.7059705868011203E-2</v>
       </c>
       <c r="S15">
-        <v>2.3505811802086E-2</v>
+        <v>7.8024285367289795E-2</v>
       </c>
       <c r="T15">
-        <v>-1.4476332149222001E-2</v>
+        <v>5.3728388749213702E-3</v>
       </c>
       <c r="U15">
-        <v>-2.6926209790613699E-2</v>
+        <v>3.6007240998897801E-2</v>
       </c>
       <c r="V15">
-        <v>7.7370210220335999E-3</v>
+        <v>1.59232627142613E-2</v>
       </c>
       <c r="W15">
-        <v>3.2496959378095401E-2</v>
+        <v>-1.45372834129237E-2</v>
       </c>
       <c r="X15">
-        <v>-1.1042475381706199E-2</v>
+        <v>1.18618526131783E-3</v>
       </c>
       <c r="Y15">
-        <v>3.1231984476766301E-2</v>
+        <v>-2.4207240926304901E-4</v>
       </c>
       <c r="Z15">
-        <v>2.5513303178895899E-2</v>
-      </c>
-      <c r="AA15">
-        <v>-1.1962640179408099E-3</v>
-      </c>
-      <c r="AB15">
-        <v>3.2988319797428697E-4</v>
+        <v>-1.3325729126775401E-3</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>5.5125320112006697E-5</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>-4.9997688435072203E-5</v>
       </c>
       <c r="AC15" s="1">
-        <v>-2.9262959512713602E-6</v>
+        <v>-3.70372252939833E-6</v>
       </c>
       <c r="AD15" s="1">
-        <v>1.00551712438846E-5</v>
+        <v>-1.79820731465622E-6</v>
       </c>
       <c r="AE15" s="1">
-        <v>1.08064298885304E-20</v>
+        <v>-3.11325783974034E-21</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>-0.95303992873822296</v>
+        <v>-0.182291641379459</v>
       </c>
       <c r="E16">
-        <v>-1.20211882208858E-2</v>
+        <v>-0.46557902418340502</v>
       </c>
       <c r="F16">
-        <v>0.150718350117031</v>
+        <v>-0.77430636641322104</v>
       </c>
       <c r="G16">
-        <v>0.14208938002701699</v>
+        <v>2.7879801546269699E-2</v>
       </c>
       <c r="H16">
-        <v>-2.2359794212127401E-2</v>
+        <v>-0.110532473477729</v>
       </c>
       <c r="I16">
-        <v>-1.9774812856941E-2</v>
+        <v>-0.21507820606150799</v>
       </c>
       <c r="J16">
-        <v>4.4742137507450298E-2</v>
+        <v>6.4113938148521399E-2</v>
       </c>
       <c r="K16">
-        <v>1.5929430234561798E-2</v>
+        <v>0.214788666093578</v>
       </c>
       <c r="L16">
-        <v>0.172447764185855</v>
+        <v>-0.14225107020012501</v>
       </c>
       <c r="M16">
-        <v>1.8795611612001498E-2</v>
+        <v>2.1948179610302501E-2</v>
       </c>
       <c r="N16">
-        <v>6.7903227437367306E-2</v>
+        <v>7.8484809394449503E-3</v>
       </c>
       <c r="O16">
-        <v>3.79965671199003E-2</v>
+        <v>-1.9848657251977202E-2</v>
       </c>
       <c r="P16">
-        <v>-2.16935683701945E-2</v>
+        <v>-6.7411786083533695E-2</v>
       </c>
       <c r="Q16">
-        <v>7.0619898701259107E-2</v>
+        <v>0.115488432128528</v>
       </c>
       <c r="R16">
-        <v>-1.2408954669551E-2</v>
+        <v>-3.2633032464894399E-3</v>
       </c>
       <c r="S16">
-        <v>1.9879687150540299E-2</v>
+        <v>3.3656929160343997E-2</v>
       </c>
       <c r="T16">
-        <v>-3.7498505626096898E-2</v>
+        <v>-1.93693624076933E-2</v>
       </c>
       <c r="U16">
-        <v>1.0751227274663201E-2</v>
+        <v>1.8205893702463501E-2</v>
       </c>
       <c r="V16">
-        <v>1.7824500439274801E-2</v>
+        <v>-2.30595736094619E-3</v>
       </c>
       <c r="W16">
-        <v>2.1289464896921202E-2</v>
+        <v>-6.8279977840733502E-3</v>
       </c>
       <c r="X16">
-        <v>-2.8505223564221801E-2</v>
+        <v>5.6978481345490201E-4</v>
       </c>
       <c r="Y16">
-        <v>1.98127986651683E-4</v>
+        <v>6.6112542140371795E-4</v>
       </c>
       <c r="Z16">
-        <v>-7.9307657784574107E-3</v>
-      </c>
-      <c r="AA16">
-        <v>-1.4039982451326399E-2</v>
-      </c>
-      <c r="AB16">
-        <v>1.14331094277805E-4</v>
+        <v>-3.3454145336019302E-4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>6.9216048233802704E-5</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-1.5681467449274598E-5</v>
       </c>
       <c r="AC16" s="1">
-        <v>2.8028946108160101E-5</v>
+        <v>-2.69860737672281E-6</v>
       </c>
       <c r="AD16" s="1">
-        <v>6.4448013402260005E-5</v>
+        <v>-1.16448889141907E-7</v>
       </c>
       <c r="AE16" s="1">
-        <v>1.2167104717181301E-19</v>
+        <v>-1.34780304697081E-8</v>
       </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>-0.93836023824230097</v>
+        <v>-0.62733850284583204</v>
       </c>
       <c r="E17">
-        <v>-2.6611188245660999E-2</v>
+        <v>-0.103947033360304</v>
       </c>
       <c r="F17">
-        <v>0.156641443826087</v>
+        <v>0.105906051708029</v>
       </c>
       <c r="G17">
-        <v>0.18536198644754401</v>
+        <v>0.29859625246532001</v>
       </c>
       <c r="H17">
-        <v>-8.4287662182895601E-2</v>
+        <v>-0.24840452334253199</v>
       </c>
       <c r="I17">
-        <v>-7.5012977010112294E-2</v>
+        <v>-9.2689888987928501E-2</v>
       </c>
       <c r="J17">
-        <v>0.110216745933865</v>
+        <v>0.21207988362469801</v>
       </c>
       <c r="K17">
-        <v>-3.67208240418E-2</v>
+        <v>-0.32113535103056801</v>
       </c>
       <c r="L17">
-        <v>0.14126035732049799</v>
+        <v>-0.37048790042018898</v>
       </c>
       <c r="M17">
-        <v>-9.5973109281488993E-3</v>
+        <v>-0.190552508173046</v>
       </c>
       <c r="N17">
-        <v>5.9978405899238599E-2</v>
+        <v>-4.8052989596997102E-2</v>
       </c>
       <c r="O17">
-        <v>3.3722570972498998E-2</v>
+        <v>-9.5740800761602504E-2</v>
       </c>
       <c r="P17">
-        <v>2.47835406059056E-2</v>
+        <v>0.29173618573572202</v>
       </c>
       <c r="Q17">
-        <v>6.1744838626657902E-2</v>
+        <v>-1.9068239322923099E-2</v>
       </c>
       <c r="R17">
-        <v>-1.09365979616434E-2</v>
+        <v>2.1165838032459701E-2</v>
       </c>
       <c r="S17">
-        <v>1.90429717084751E-2</v>
+        <v>6.8116991536491603E-2</v>
       </c>
       <c r="T17">
-        <v>-2.7304310581593098E-2</v>
+        <v>4.7215155394712601E-3</v>
       </c>
       <c r="U17">
-        <v>4.8493497647471599E-3</v>
+        <v>3.2442937505565997E-2</v>
       </c>
       <c r="V17">
-        <v>1.6802206601765401E-2</v>
+        <v>-1.1077178784151801E-2</v>
       </c>
       <c r="W17">
-        <v>3.5109893185135299E-2</v>
+        <v>5.99422577327455E-3</v>
       </c>
       <c r="X17">
-        <v>-3.16774829333634E-2</v>
+        <v>7.8041326520504205E-4</v>
       </c>
       <c r="Y17">
-        <v>2.0367165601608402E-2</v>
+        <v>-4.0571209352885402E-3</v>
       </c>
       <c r="Z17">
-        <v>-1.14475641431615E-2</v>
+        <v>1.51669623484333E-3</v>
       </c>
       <c r="AA17">
-        <v>1.11895503131211E-2</v>
-      </c>
-      <c r="AB17">
-        <v>-2.8243197517949502E-4</v>
+        <v>-1.5156377353676899E-3</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>3.07441585483272E-5</v>
       </c>
       <c r="AC17" s="1">
-        <v>-2.6556023850034999E-5</v>
+        <v>4.2228108215093199E-6</v>
       </c>
       <c r="AD17" s="1">
-        <v>-6.7462515207017198E-5</v>
+        <v>7.01493012363289E-6</v>
       </c>
       <c r="AE17" s="1">
-        <v>-1.21433876107811E-19</v>
+        <v>1.3220634021174001E-20</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>-0.95710136377564003</v>
+        <v>-0.65825878761228496</v>
       </c>
       <c r="E18">
-        <v>0.16716566429035301</v>
+        <v>7.4398860684340897E-3</v>
       </c>
       <c r="F18">
-        <v>-6.0947300468202001E-2</v>
+        <v>7.7494992281497102E-2</v>
       </c>
       <c r="G18">
-        <v>-8.3989324481749394E-2</v>
+        <v>-6.2438764975345999E-2</v>
       </c>
       <c r="H18">
-        <v>5.00480284933148E-2</v>
+        <v>0.33025886008580402</v>
       </c>
       <c r="I18">
-        <v>6.6678661712823106E-2</v>
+        <v>0.31668426680712802</v>
       </c>
       <c r="J18">
-        <v>-0.11586320464597701</v>
+        <v>-0.45151635841889098</v>
       </c>
       <c r="K18">
-        <v>8.1305975602928598E-2</v>
+        <v>0.22493807020995299</v>
       </c>
       <c r="L18">
-        <v>-5.5052445838319398E-2</v>
+        <v>6.9743623433472401E-2</v>
       </c>
       <c r="M18">
-        <v>3.1177011761843801E-2</v>
+        <v>-0.106113901549429</v>
       </c>
       <c r="N18">
-        <v>-6.8944897114286294E-2</v>
+        <v>-3.8455867928817097E-2</v>
       </c>
       <c r="O18">
-        <v>-1.8832685886132499E-2</v>
+        <v>-3.44168477962477E-2</v>
       </c>
       <c r="P18">
-        <v>-2.82508915731094E-2</v>
+        <v>0.192330528536728</v>
       </c>
       <c r="Q18">
-        <v>-2.41570612508108E-2</v>
+        <v>0.14236690361380699</v>
       </c>
       <c r="R18">
-        <v>-1.7803636926901501E-2</v>
+        <v>5.8775865644004896E-3</v>
       </c>
       <c r="S18">
-        <v>-2.1059512153805301E-2</v>
+        <v>0.104792449731804</v>
       </c>
       <c r="T18">
-        <v>1.13893837006456E-2</v>
+        <v>-4.2155831389323897E-2</v>
       </c>
       <c r="U18">
-        <v>2.9538174079181301E-2</v>
+        <v>3.6930022566028203E-2</v>
       </c>
       <c r="V18">
-        <v>-2.69805114398671E-2</v>
+        <v>-4.67294081357274E-3</v>
       </c>
       <c r="W18">
-        <v>6.9445426301527793E-2</v>
+        <v>-5.1340701384965402E-2</v>
       </c>
       <c r="X18">
-        <v>1.44306283407174E-2</v>
+        <v>6.2240102460626098E-3</v>
       </c>
       <c r="Y18">
-        <v>-1.32757316369104E-2</v>
+        <v>2.0925551817590499E-3</v>
       </c>
       <c r="Z18">
-        <v>-6.63438233950857E-3</v>
+        <v>-2.4627410991593401E-3</v>
       </c>
       <c r="AA18">
-        <v>1.20880685955308E-3</v>
-      </c>
-      <c r="AB18">
-        <v>4.71666764957947E-3</v>
+        <v>1.01649051147534E-3</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>-9.5253059255949896E-5</v>
       </c>
       <c r="AC18" s="1">
-        <v>-8.4060459741841007E-6</v>
+        <v>-5.8680808748345897E-6</v>
       </c>
       <c r="AD18" s="1">
-        <v>5.4676814559911597E-5</v>
+        <v>-6.5795685984280501E-6</v>
       </c>
       <c r="AE18" s="1">
-        <v>1.08138017671149E-21</v>
+        <v>-1.1483445290072699E-20</v>
       </c>
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>-0.92743788822613704</v>
+        <v>-0.89129883210810601</v>
       </c>
       <c r="E19">
-        <v>-8.0791626446789999E-2</v>
+        <v>0.176710733848566</v>
       </c>
       <c r="F19">
-        <v>0.17352412060917699</v>
+        <v>-8.6818479870772305E-2</v>
       </c>
       <c r="G19">
-        <v>0.15698123541447401</v>
+        <v>-5.0770575761006999E-2</v>
       </c>
       <c r="H19">
-        <v>-4.4350859205268101E-2</v>
+        <v>4.7297271357595601E-2</v>
       </c>
       <c r="I19">
-        <v>-7.5602419301917398E-2</v>
+        <v>0.106799161919559</v>
       </c>
       <c r="J19">
-        <v>0.103019409166777</v>
+        <v>-2.46503927123423E-2</v>
       </c>
       <c r="K19">
-        <v>-3.7166416465539497E-2</v>
+        <v>4.6100923784032903E-2</v>
       </c>
       <c r="L19">
-        <v>0.18085675922634101</v>
+        <v>-0.27910783770535902</v>
       </c>
       <c r="M19">
-        <v>4.6706958495068403E-2</v>
+        <v>-4.1219258854685602E-2</v>
       </c>
       <c r="N19">
-        <v>0.101203427582484</v>
+        <v>-0.108390530734673</v>
       </c>
       <c r="O19">
-        <v>4.1887367847637302E-2</v>
+        <v>3.2909647309880601E-2</v>
       </c>
       <c r="P19">
-        <v>-1.96820882535035E-2</v>
+        <v>-0.104427145345717</v>
       </c>
       <c r="Q19">
-        <v>6.0278050293629599E-2</v>
-      </c>
-      <c r="R19">
-        <v>-4.8648527406603401E-2</v>
+        <v>-0.13882432069821801</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-2.3118476352630899E-5</v>
       </c>
       <c r="S19">
-        <v>1.9379554417153399E-2</v>
+        <v>2.78691927781551E-2</v>
       </c>
       <c r="T19">
-        <v>-5.1039716182204001E-2</v>
+        <v>-4.3033058051163399E-2</v>
       </c>
       <c r="U19">
-        <v>-6.1713913651396703E-3</v>
+        <v>-0.12108756973031</v>
       </c>
       <c r="V19">
-        <v>1.3959815527267E-2</v>
+        <v>7.9259410932705901E-2</v>
       </c>
       <c r="W19">
-        <v>-1.7495903814225201E-2</v>
+        <v>-3.7490174280277899E-2</v>
       </c>
       <c r="X19">
-        <v>-6.9648853445647601E-3</v>
+        <v>-4.2646036464485003E-3</v>
       </c>
       <c r="Y19">
-        <v>-4.1210675815665801E-2</v>
+        <v>-1.2122858608046501E-2</v>
       </c>
       <c r="Z19">
-        <v>1.8614541905936099E-2</v>
+        <v>-1.0751976767983199E-2</v>
       </c>
       <c r="AA19">
-        <v>3.5946430410998299E-3</v>
+        <v>7.2166059609290296E-4</v>
       </c>
       <c r="AB19">
-        <v>2.02201303166607E-4</v>
+        <v>-1.16665772042527E-4</v>
       </c>
       <c r="AC19" s="1">
-        <v>6.1154647413959896E-6</v>
+        <v>7.6967169662563201E-6</v>
       </c>
       <c r="AD19" s="1">
-        <v>-2.0880703682822102E-5</v>
+        <v>-1.1573120997916501E-5</v>
       </c>
       <c r="AE19" s="1">
-        <v>-3.9111174742443701E-20</v>
+        <v>-1.5579933082925599E-20</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -3050,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>-0.90430080935097201</v>
@@ -3139,861 +3180,2150 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21">
-        <v>0.38235949226404098</v>
+        <v>-0.92743788822613704</v>
       </c>
       <c r="E21">
-        <v>-0.46636771231143598</v>
+        <v>-8.0791626446789999E-2</v>
       </c>
       <c r="F21">
-        <v>0.28049831949408199</v>
+        <v>0.17352412060917699</v>
       </c>
       <c r="G21">
-        <v>0.56101573082197398</v>
+        <v>0.15698123541447401</v>
       </c>
       <c r="H21">
-        <v>8.7419914874670504E-2</v>
+        <v>-4.4350859205268101E-2</v>
       </c>
       <c r="I21">
-        <v>0.100177520000436</v>
+        <v>-7.5602419301917398E-2</v>
       </c>
       <c r="J21">
-        <v>4.19009550954536E-2</v>
+        <v>0.103019409166777</v>
       </c>
       <c r="K21">
-        <v>6.2389964787319903E-2</v>
+        <v>-3.7166416465539497E-2</v>
       </c>
       <c r="L21">
-        <v>2.41061503713954E-2</v>
+        <v>0.18085675922634101</v>
       </c>
       <c r="M21">
-        <v>-0.34429076760823701</v>
+        <v>4.6706958495068403E-2</v>
       </c>
       <c r="N21">
-        <v>1.8483341325255399E-2</v>
+        <v>0.101203427582484</v>
       </c>
       <c r="O21">
-        <v>0.134115887818473</v>
+        <v>4.1887367847637302E-2</v>
       </c>
       <c r="P21">
-        <v>-0.24787682721347901</v>
+        <v>-1.96820882535035E-2</v>
       </c>
       <c r="Q21">
-        <v>-2.2660013061724101E-2</v>
+        <v>6.0278050293629599E-2</v>
       </c>
       <c r="R21">
-        <v>5.1396465091642703E-2</v>
+        <v>-4.8648527406603401E-2</v>
       </c>
       <c r="S21">
-        <v>0.114802194318174</v>
+        <v>1.9379554417153399E-2</v>
       </c>
       <c r="T21">
-        <v>6.1485973026240502E-2</v>
+        <v>-5.1039716182204001E-2</v>
       </c>
       <c r="U21">
-        <v>1.4373754774981999E-2</v>
+        <v>-6.1713913651396703E-3</v>
       </c>
       <c r="V21">
-        <v>-1.7610459362336101E-2</v>
+        <v>1.3959815527267E-2</v>
       </c>
       <c r="W21">
-        <v>1.55495514165132E-3</v>
+        <v>-1.7495903814225201E-2</v>
       </c>
       <c r="X21">
-        <v>5.7263383498526998E-3</v>
+        <v>-6.9648853445647601E-3</v>
       </c>
       <c r="Y21">
-        <v>-1.35642702699333E-3</v>
+        <v>-4.1210675815665801E-2</v>
       </c>
       <c r="Z21">
-        <v>-6.0014257670835101E-4</v>
+        <v>1.8614541905936099E-2</v>
       </c>
       <c r="AA21">
-        <v>2.5764066945881901E-4</v>
+        <v>3.5946430410998299E-3</v>
       </c>
       <c r="AB21">
-        <v>4.7694945406003897E-4</v>
+        <v>2.02201303166607E-4</v>
       </c>
       <c r="AC21" s="1">
-        <v>-2.3941681310623302E-6</v>
+        <v>6.1154647413959896E-6</v>
       </c>
       <c r="AD21" s="1">
-        <v>8.4461812934364908E-6</v>
+        <v>-2.0880703682822102E-5</v>
       </c>
       <c r="AE21" s="1">
-        <v>4.4548343224164797E-21</v>
+        <v>-3.9111174742443701E-20</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>-0.93836023824230097</v>
+      </c>
+      <c r="E22">
+        <v>-2.6611188245660999E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.156641443826087</v>
+      </c>
+      <c r="G22">
+        <v>0.18536198644754401</v>
+      </c>
+      <c r="H22">
+        <v>-8.4287662182895601E-2</v>
+      </c>
+      <c r="I22">
+        <v>-7.5012977010112294E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.110216745933865</v>
+      </c>
+      <c r="K22">
+        <v>-3.67208240418E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.14126035732049799</v>
+      </c>
+      <c r="M22">
+        <v>-9.5973109281488993E-3</v>
+      </c>
+      <c r="N22">
+        <v>5.9978405899238599E-2</v>
+      </c>
+      <c r="O22">
+        <v>3.3722570972498998E-2</v>
+      </c>
+      <c r="P22">
+        <v>2.47835406059056E-2</v>
+      </c>
+      <c r="Q22">
+        <v>6.1744838626657902E-2</v>
+      </c>
+      <c r="R22">
+        <v>-1.09365979616434E-2</v>
+      </c>
+      <c r="S22">
+        <v>1.90429717084751E-2</v>
+      </c>
+      <c r="T22">
+        <v>-2.7304310581593098E-2</v>
+      </c>
+      <c r="U22">
+        <v>4.8493497647471599E-3</v>
+      </c>
+      <c r="V22">
+        <v>1.6802206601765401E-2</v>
+      </c>
+      <c r="W22">
+        <v>3.5109893185135299E-2</v>
+      </c>
+      <c r="X22">
+        <v>-3.16774829333634E-2</v>
+      </c>
+      <c r="Y22">
+        <v>2.0367165601608402E-2</v>
+      </c>
+      <c r="Z22">
+        <v>-1.14475641431615E-2</v>
+      </c>
+      <c r="AA22">
+        <v>1.11895503131211E-2</v>
+      </c>
+      <c r="AB22">
+        <v>-2.8243197517949502E-4</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>-2.6556023850034999E-5</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>-6.7462515207017198E-5</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>-1.21433876107811E-19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>-0.95303992873822296</v>
+      </c>
+      <c r="E23">
+        <v>-1.20211882208858E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.150718350117031</v>
+      </c>
+      <c r="G23">
+        <v>0.14208938002701699</v>
+      </c>
+      <c r="H23">
+        <v>-2.2359794212127401E-2</v>
+      </c>
+      <c r="I23">
+        <v>-1.9774812856941E-2</v>
+      </c>
+      <c r="J23">
+        <v>4.4742137507450298E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.5929430234561798E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.172447764185855</v>
+      </c>
+      <c r="M23">
+        <v>1.8795611612001498E-2</v>
+      </c>
+      <c r="N23">
+        <v>6.7903227437367306E-2</v>
+      </c>
+      <c r="O23">
+        <v>3.79965671199003E-2</v>
+      </c>
+      <c r="P23">
+        <v>-2.16935683701945E-2</v>
+      </c>
+      <c r="Q23">
+        <v>7.0619898701259107E-2</v>
+      </c>
+      <c r="R23">
+        <v>-1.2408954669551E-2</v>
+      </c>
+      <c r="S23">
+        <v>1.9879687150540299E-2</v>
+      </c>
+      <c r="T23">
+        <v>-3.7498505626096898E-2</v>
+      </c>
+      <c r="U23">
+        <v>1.0751227274663201E-2</v>
+      </c>
+      <c r="V23">
+        <v>1.7824500439274801E-2</v>
+      </c>
+      <c r="W23">
+        <v>2.1289464896921202E-2</v>
+      </c>
+      <c r="X23">
+        <v>-2.8505223564221801E-2</v>
+      </c>
+      <c r="Y23">
+        <v>1.98127986651683E-4</v>
+      </c>
+      <c r="Z23">
+        <v>-7.9307657784574107E-3</v>
+      </c>
+      <c r="AA23">
+        <v>-1.4039982451326399E-2</v>
+      </c>
+      <c r="AB23">
+        <v>1.14331094277805E-4</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>2.8028946108160101E-5</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>6.4448013402260005E-5</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>1.2167104717181301E-19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>-0.95315407485358605</v>
+      </c>
+      <c r="E24">
+        <v>0.11161523241851599</v>
+      </c>
+      <c r="F24">
+        <v>-3.8078147429325603E-2</v>
+      </c>
+      <c r="G24">
+        <v>-4.8839474921930998E-2</v>
+      </c>
+      <c r="H24">
+        <v>5.6294110473553198E-2</v>
+      </c>
+      <c r="I24">
+        <v>9.7580905341510496E-2</v>
+      </c>
+      <c r="J24">
+        <v>-0.11593216561562</v>
+      </c>
+      <c r="K24">
+        <v>9.0801940445805002E-2</v>
+      </c>
+      <c r="L24">
+        <v>-0.12436929839802099</v>
+      </c>
+      <c r="M24">
+        <v>-2.8863737303624799E-2</v>
+      </c>
+      <c r="N24">
+        <v>-0.10736823292868899</v>
+      </c>
+      <c r="O24">
+        <v>1.80368027886545E-2</v>
+      </c>
+      <c r="P24">
+        <v>-6.3372546458787593E-2</v>
+      </c>
+      <c r="Q24">
+        <v>-6.4079816440303694E-2</v>
+      </c>
+      <c r="R24">
+        <v>-1.4089811909582301E-2</v>
+      </c>
+      <c r="S24">
+        <v>2.3505811802086E-2</v>
+      </c>
+      <c r="T24">
+        <v>-1.4476332149222001E-2</v>
+      </c>
+      <c r="U24">
+        <v>-2.6926209790613699E-2</v>
+      </c>
+      <c r="V24">
+        <v>7.7370210220335999E-3</v>
+      </c>
+      <c r="W24">
+        <v>3.2496959378095401E-2</v>
+      </c>
+      <c r="X24">
+        <v>-1.1042475381706199E-2</v>
+      </c>
+      <c r="Y24">
+        <v>3.1231984476766301E-2</v>
+      </c>
+      <c r="Z24">
+        <v>2.5513303178895899E-2</v>
+      </c>
+      <c r="AA24">
+        <v>-1.1962640179408099E-3</v>
+      </c>
+      <c r="AB24">
+        <v>3.2988319797428697E-4</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>-2.9262959512713602E-6</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>1.00551712438846E-5</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1.08064298885304E-20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>-0.95710136377564003</v>
+      </c>
+      <c r="E25">
+        <v>0.16716566429035301</v>
+      </c>
+      <c r="F25">
+        <v>-6.0947300468202001E-2</v>
+      </c>
+      <c r="G25">
+        <v>-8.3989324481749394E-2</v>
+      </c>
+      <c r="H25">
+        <v>5.00480284933148E-2</v>
+      </c>
+      <c r="I25">
+        <v>6.6678661712823106E-2</v>
+      </c>
+      <c r="J25">
+        <v>-0.11586320464597701</v>
+      </c>
+      <c r="K25">
+        <v>8.1305975602928598E-2</v>
+      </c>
+      <c r="L25">
+        <v>-5.5052445838319398E-2</v>
+      </c>
+      <c r="M25">
+        <v>3.1177011761843801E-2</v>
+      </c>
+      <c r="N25">
+        <v>-6.8944897114286294E-2</v>
+      </c>
+      <c r="O25">
+        <v>-1.8832685886132499E-2</v>
+      </c>
+      <c r="P25">
+        <v>-2.82508915731094E-2</v>
+      </c>
+      <c r="Q25">
+        <v>-2.41570612508108E-2</v>
+      </c>
+      <c r="R25">
+        <v>-1.7803636926901501E-2</v>
+      </c>
+      <c r="S25">
+        <v>-2.1059512153805301E-2</v>
+      </c>
+      <c r="T25">
+        <v>1.13893837006456E-2</v>
+      </c>
+      <c r="U25">
+        <v>2.9538174079181301E-2</v>
+      </c>
+      <c r="V25">
+        <v>-2.69805114398671E-2</v>
+      </c>
+      <c r="W25">
+        <v>6.9445426301527793E-2</v>
+      </c>
+      <c r="X25">
+        <v>1.44306283407174E-2</v>
+      </c>
+      <c r="Y25">
+        <v>-1.32757316369104E-2</v>
+      </c>
+      <c r="Z25">
+        <v>-6.63438233950857E-3</v>
+      </c>
+      <c r="AA25">
+        <v>1.20880685955308E-3</v>
+      </c>
+      <c r="AB25">
+        <v>4.71666764957947E-3</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>-8.4060459741841007E-6</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>5.4676814559911597E-5</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1.08138017671149E-21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>-0.96256021131482705</v>
+      </c>
+      <c r="E26">
+        <v>0.124717902885</v>
+      </c>
+      <c r="F26">
+        <v>-3.4837634663948902E-2</v>
+      </c>
+      <c r="G26">
+        <v>-2.9799105142608698E-2</v>
+      </c>
+      <c r="H26">
+        <v>6.6557337469689698E-2</v>
+      </c>
+      <c r="I26">
+        <v>8.1570319643716901E-2</v>
+      </c>
+      <c r="J26">
+        <v>-0.121844323263855</v>
+      </c>
+      <c r="K26">
+        <v>9.0342973048950004E-2</v>
+      </c>
+      <c r="L26">
+        <v>-6.0036474362116003E-2</v>
+      </c>
+      <c r="M26">
+        <v>-6.0663107418405301E-3</v>
+      </c>
+      <c r="N26">
+        <v>-7.1564784184102198E-2</v>
+      </c>
+      <c r="O26">
+        <v>-6.2382962066909404E-3</v>
+      </c>
+      <c r="P26">
+        <v>-5.8761375598416897E-2</v>
+      </c>
+      <c r="Q26">
+        <v>-2.6411257062157401E-2</v>
+      </c>
+      <c r="R26">
+        <v>-1.1039670242984599E-2</v>
+      </c>
+      <c r="S26">
+        <v>-1.29911027898234E-2</v>
+      </c>
+      <c r="T26">
+        <v>2.0504122828096601E-2</v>
+      </c>
+      <c r="U26">
+        <v>2.8507391959080398E-2</v>
+      </c>
+      <c r="V26">
+        <v>-3.1791152248026699E-2</v>
+      </c>
+      <c r="W26">
+        <v>7.5998424303799494E-2</v>
+      </c>
+      <c r="X26">
+        <v>1.44047267226028E-2</v>
+      </c>
+      <c r="Y26">
+        <v>-1.51275780598685E-2</v>
+      </c>
+      <c r="Z26">
+        <v>-3.2998538294902301E-3</v>
+      </c>
+      <c r="AA26">
+        <v>2.2889670322985599E-4</v>
+      </c>
+      <c r="AB26">
+        <v>-4.5416786020031101E-3</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>-3.12576726631294E-6</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>-4.9807243118611803E-5</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>-1.4487928537533201E-22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>-0.97290182403708803</v>
+      </c>
+      <c r="E27">
+        <v>0.15683203206006199</v>
+      </c>
+      <c r="F27">
+        <v>-1.3665188232793E-2</v>
+      </c>
+      <c r="G27">
+        <v>7.7298621847831206E-2</v>
+      </c>
+      <c r="H27">
+        <v>-2.9935687754081199E-2</v>
+      </c>
+      <c r="I27">
+        <v>-2.8126943281672101E-3</v>
+      </c>
+      <c r="J27">
+        <v>5.8945688239747801E-2</v>
+      </c>
+      <c r="K27">
+        <v>2.4336858170779699E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.42244774023008E-2</v>
+      </c>
+      <c r="M27">
+        <v>3.6676057361897399E-2</v>
+      </c>
+      <c r="N27">
+        <v>3.4513691569852899E-3</v>
+      </c>
+      <c r="O27">
+        <v>-3.2504112217247902E-2</v>
+      </c>
+      <c r="P27">
+        <v>-4.4150240800746997E-2</v>
+      </c>
+      <c r="Q27">
+        <v>-3.6075383488944901E-2</v>
+      </c>
+      <c r="R27">
+        <v>8.0430139092049508E-3</v>
+      </c>
+      <c r="S27">
+        <v>-5.0904779637863697E-2</v>
+      </c>
+      <c r="T27">
+        <v>7.3173397265733006E-2</v>
+      </c>
+      <c r="U27">
+        <v>2.16236640196136E-2</v>
+      </c>
+      <c r="V27">
+        <v>-3.2821731489362398E-2</v>
+      </c>
+      <c r="W27">
+        <v>-4.7851707204821799E-2</v>
+      </c>
+      <c r="X27">
+        <v>-1.5470870724727901E-3</v>
+      </c>
+      <c r="Y27">
+        <v>3.69313715024006E-3</v>
+      </c>
+      <c r="Z27">
+        <v>-9.5225189931545803E-4</v>
+      </c>
+      <c r="AA27">
+        <v>6.5178309255747402E-4</v>
+      </c>
+      <c r="AB27">
+        <v>-1.87208837711686E-4</v>
+      </c>
+      <c r="AC27">
+        <v>1.43602598073921E-3</v>
+      </c>
+      <c r="AD27">
+        <v>1.41505509200009E-3</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>2.7303896695253001E-18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>-0.97291109228992001</v>
+      </c>
+      <c r="E28">
+        <v>0.15556854206444801</v>
+      </c>
+      <c r="F28">
+        <v>-1.2871504469455E-2</v>
+      </c>
+      <c r="G28">
+        <v>7.7851690892684997E-2</v>
+      </c>
+      <c r="H28">
+        <v>-3.1326285651138999E-2</v>
+      </c>
+      <c r="I28">
+        <v>-1.57158740956067E-3</v>
+      </c>
+      <c r="J28">
+        <v>6.0500049598124703E-2</v>
+      </c>
+      <c r="K28">
+        <v>2.3688812644694902E-2</v>
+      </c>
+      <c r="L28">
+        <v>1.37468265327821E-2</v>
+      </c>
+      <c r="M28">
+        <v>3.7046989022805399E-2</v>
+      </c>
+      <c r="N28">
+        <v>4.33385812697102E-3</v>
+      </c>
+      <c r="O28">
+        <v>-3.0853117356713901E-2</v>
+      </c>
+      <c r="P28">
+        <v>-4.4056210138360197E-2</v>
+      </c>
+      <c r="Q28">
+        <v>-3.6878742660967703E-2</v>
+      </c>
+      <c r="R28">
+        <v>7.8379508918773495E-3</v>
+      </c>
+      <c r="S28">
+        <v>-5.1559059996396497E-2</v>
+      </c>
+      <c r="T28">
+        <v>7.3282120498183001E-2</v>
+      </c>
+      <c r="U28">
+        <v>2.10824451659311E-2</v>
+      </c>
+      <c r="V28">
+        <v>-3.2949172318187503E-2</v>
+      </c>
+      <c r="W28">
+        <v>-4.8342954174858399E-2</v>
+      </c>
+      <c r="X28">
+        <v>-1.3087176382202601E-3</v>
+      </c>
+      <c r="Y28">
+        <v>3.39887376792337E-3</v>
+      </c>
+      <c r="Z28">
+        <v>-8.8658267698162898E-4</v>
+      </c>
+      <c r="AA28">
+        <v>-1.26355289211484E-4</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>-4.7759882580194103E-5</v>
+      </c>
+      <c r="AC28">
+        <v>-2.4938712155287098E-3</v>
+      </c>
+      <c r="AD28">
+        <v>1.48450938560156E-4</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>-4.1395578559695498E-19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>-0.97299119198008699</v>
+      </c>
+      <c r="E29">
+        <v>0.15546881399485399</v>
+      </c>
+      <c r="F29">
+        <v>-1.3395952592094701E-2</v>
+      </c>
+      <c r="G29">
+        <v>7.6998058499802999E-2</v>
+      </c>
+      <c r="H29">
+        <v>-3.0511868226744399E-2</v>
+      </c>
+      <c r="I29">
+        <v>-2.1127288563735401E-3</v>
+      </c>
+      <c r="J29">
+        <v>6.0029988284529899E-2</v>
+      </c>
+      <c r="K29">
+        <v>2.45180337284772E-2</v>
+      </c>
+      <c r="L29">
+        <v>1.49590956016306E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.6452529760259901E-2</v>
+      </c>
+      <c r="N29">
+        <v>4.2321915360661704E-3</v>
+      </c>
+      <c r="O29">
+        <v>-3.2518185453003001E-2</v>
+      </c>
+      <c r="P29">
+        <v>-4.4907409388799301E-2</v>
+      </c>
+      <c r="Q29">
+        <v>-3.5670802043455803E-2</v>
+      </c>
+      <c r="R29">
+        <v>9.2223020229998207E-3</v>
+      </c>
+      <c r="S29">
+        <v>-5.1109593034575303E-2</v>
+      </c>
+      <c r="T29">
+        <v>7.3548294097582997E-2</v>
+      </c>
+      <c r="U29">
+        <v>2.1661677086684501E-2</v>
+      </c>
+      <c r="V29">
+        <v>-3.32201747233681E-2</v>
+      </c>
+      <c r="W29">
+        <v>-4.7466072845645302E-2</v>
+      </c>
+      <c r="X29">
+        <v>-4.62872249765727E-4</v>
+      </c>
+      <c r="Y29">
+        <v>3.8634698631860999E-3</v>
+      </c>
+      <c r="Z29">
+        <v>-9.0474457972535905E-4</v>
+      </c>
+      <c r="AA29">
+        <v>-5.3462730381229702E-4</v>
+      </c>
+      <c r="AB29">
+        <v>1.5494659054369E-4</v>
+      </c>
+      <c r="AC29">
+        <v>1.06439564424221E-3</v>
+      </c>
+      <c r="AD29">
+        <v>-1.56408919228631E-3</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>-2.31424866209116E-18</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:AE29">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>0.430859136603362</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>0.77873832281888899</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>0.77430636641322104</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>0.56101573082197398</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2">
+        <v>0.67295183732556796</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2">
+        <v>0.46148429328398999</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2">
+        <v>0.41239190510316898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>0.405377976910888</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>0.74259066477696001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>0.772792668592302</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>0.54361530355614396</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3">
+        <v>0.33025886008580402</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3">
+        <v>0.45300757804256198</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3">
+        <v>0.34615382508071701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>0.38235949226404098</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>0.70580498903538602</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>0.67488419847093695</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>0.45413099571670401</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4">
+        <v>0.110532473477729</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4">
+        <v>0.31668426680712802</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4">
+        <v>0.21207988362469801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>0.31164724484682199</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>0.53939989657951204</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <v>0.29513234422490298</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>0.38828351649786202</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>8.7419914874670504E-2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>0.21507820606150799</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5">
+        <v>0.170212587873666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>0.194492985806652</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>0.46557902418340502</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>0.28630848280087001</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <v>0.29859625246532001</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>6.6557337469689698E-2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6">
+        <v>0.106799161919559</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6">
+        <v>0.16302517638008099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>0.18229164137946</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>0.26756997920292402</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>0.28049831949408199</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7">
+        <v>0.29677852253095999</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7">
+        <v>5.6294110473553198E-2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7">
+        <v>0.100177520000436</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <v>0.110216745933865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>0.16490089670965</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>0.176710733848566</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>0.28044272987899599</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>0.28567421683338301</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8">
+        <v>5.00480284933148E-2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8">
+        <v>9.7580905341510496E-2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8">
+        <v>0.103019409166777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0.15485367943286699</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>0.16716566429035301</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9">
+        <v>0.18107447322127301</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>0.18536198644754401</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9">
+        <v>4.7297271357595601E-2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9">
+        <v>8.1570319643716901E-2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>7.7086314948732207E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>0.119873866376949</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>0.15683203206006199</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>0.17352412060917699</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>0.17553756615736099</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10">
+        <v>1.7983445831853601E-2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10">
+        <v>6.6678661712823106E-2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10">
+        <v>6.4113938148521399E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>1.58662574118307E-2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>0.15556854206444801</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>0.17089692149928101</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>0.15698123541447401</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11">
+        <v>-2.2359794212127401E-2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11">
+        <v>6.3085298040521307E-2</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11">
+        <v>6.0500049598124703E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>7.7548412217682203E-3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>0.15546881399485399</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>0.16906127031337001</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>0.14208938002701699</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>-2.9935687754081199E-2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12">
+        <v>-1.57158740956067E-3</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12">
+        <v>6.0029988284529899E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>-0.10551739552131099</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>0.124717902885</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>0.16759668851376</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <v>8.6616443118685105E-2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>-3.0511868226744399E-2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13">
+        <v>-2.1127288563735401E-3</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13">
+        <v>5.8945688239747801E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>-0.120472783194291</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>0.11161523241851599</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14">
+        <v>0.16122315597845499</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>7.7851690892684997E-2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14">
+        <v>-3.1326285651138999E-2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14">
+        <v>-2.8126943281672101E-3</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14">
+        <v>4.4742137507450298E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>-0.14778198983723401</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>7.4398860684340897E-3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>0.156641443826087</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>7.7298621847831206E-2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <v>-3.2026314197449703E-2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>-1.9774812856941E-2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15">
+        <v>4.19009550954536E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>-0.182291641379459</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>-1.20211882208858E-2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>0.150718350117031</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16">
+        <v>7.6998058499802999E-2</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16">
+        <v>-4.4350859205268101E-2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16">
+        <v>-3.4180571830143898E-2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16">
+        <v>8.3309977768563602E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>-0.62733850284583204</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>-2.6611188245660999E-2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>0.105906051708029</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>2.7879801546269699E-2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>-6.8048491962862501E-2</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17">
+        <v>-7.5012977010112294E-2</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17">
+        <v>1.84194297296456E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>-0.65825878761228496</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>-7.9569490429830997E-2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>7.7494992281497102E-2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18">
+        <v>-2.8569745965251501E-4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18">
+        <v>-8.0754179610701304E-2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18">
+        <v>-7.5602419301917398E-2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18">
+        <v>-2.46503927123423E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>-0.89129883210810601</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>-8.0791626446789999E-2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>-1.2871504469455E-2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19">
+        <v>-4.4776509699488796E-3</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>-8.4287662182895601E-2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <v>-9.0632875773776697E-2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19">
+        <v>-6.4113938148521704E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>-0.90430080935097201</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>-0.103947033360304</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>-1.3395952592094701E-2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>-2.7879801546269799E-2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20">
+        <v>-0.102806624823154</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20">
+        <v>-9.2689888987928501E-2</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20">
+        <v>-7.0880389733297799E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <v>-0.92743788822613704</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>-0.195773137843999</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>-1.3665188232793E-2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <v>-2.9799105142608698E-2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21">
+        <v>-0.110532473477729</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21">
+        <v>-0.13811732255919201</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21">
+        <v>-7.4472508031688603E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>-0.93836023824230097</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D22">
-        <v>0.16490089670965</v>
-      </c>
-      <c r="E22">
+        <v>-0.41641376806076702</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22">
+        <v>-3.4837634663948902E-2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22">
+        <v>-4.8839474921930998E-2</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22">
+        <v>-0.12978378281933001</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22">
+        <v>-0.148107132005867</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22">
+        <v>-0.111705289329718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>-0.95303992873822296</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>-0.44595170862908001</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23">
+        <v>-3.8078147429325603E-2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>-5.0770575761006999E-2</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23">
+        <v>-0.14186316056739301</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23">
+        <v>-0.158636401953549</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23">
+        <v>-0.11586320464597701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>-0.95315407485358605</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
         <v>-0.461164228889064</v>
       </c>
-      <c r="F22">
-        <v>0.16122315597845499</v>
-      </c>
-      <c r="G22">
-        <v>0.54361530355614396</v>
-      </c>
-      <c r="H22">
-        <v>-0.12978378281933001</v>
-      </c>
-      <c r="I22">
-        <v>6.3085298040521307E-2</v>
-      </c>
-      <c r="J22">
+      <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24">
+        <v>-6.0947300468202001E-2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <v>-6.2438764975345999E-2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24">
+        <v>-0.186175079203557</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24">
+        <v>-0.190127280423948</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24">
+        <v>-0.11593216561562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>-0.95710136377564003</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>-0.46557902418340502</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25">
+        <v>-8.6818479870772305E-2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25">
+        <v>-8.3989324481749394E-2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25">
+        <v>-0.20914203746106599</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25">
+        <v>-0.21507820606150799</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25">
+        <v>-0.121844323263855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>-0.96256021131482705</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>-0.46636771231143598</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>-9.3964795623518199E-2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26">
+        <v>-0.164841445607602</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>-0.214001453885416</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26">
+        <v>-0.22017899145113501</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26">
+        <v>-0.156778868138402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>-0.97290182403708803</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>-0.52082210378197602</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>-0.10267870858615701</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27">
+        <v>-0.16974826613233501</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27">
+        <v>-0.24840452334253199</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27">
+        <v>-0.245135337762697</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27">
+        <v>-0.233131357440337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>-0.97291109228992001</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>-0.73446704151912001</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28">
+        <v>-0.14802819512453999</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28">
+        <v>-0.31020982523527701</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28">
+        <v>-0.48462109526305203</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28">
+        <v>-0.25146559671241198</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28">
         <v>-0.40418308652424301</v>
       </c>
-      <c r="K22">
-        <v>-9.8312944314685499E-2</v>
-      </c>
-      <c r="L22">
-        <v>-0.178908574503713</v>
-      </c>
-      <c r="M22">
-        <v>0.411191579928532</v>
-      </c>
-      <c r="N22">
-        <v>0.16632717269068001</v>
-      </c>
-      <c r="O22">
-        <v>1.1739724265838899E-2</v>
-      </c>
-      <c r="P22">
-        <v>-3.1038077810429901E-2</v>
-      </c>
-      <c r="Q22">
-        <v>-9.7977521912765306E-2</v>
-      </c>
-      <c r="R22">
-        <v>-3.1215670448092502E-2</v>
-      </c>
-      <c r="S22">
-        <v>5.7927931800823201E-2</v>
-      </c>
-      <c r="T22">
-        <v>-5.6285585171145097E-3</v>
-      </c>
-      <c r="U22">
-        <v>3.0372786975352901E-2</v>
-      </c>
-      <c r="V22">
-        <v>4.1563901040823697E-3</v>
-      </c>
-      <c r="W22">
-        <v>-2.6620520673218701E-3</v>
-      </c>
-      <c r="X22">
-        <v>1.2084879257607899E-3</v>
-      </c>
-      <c r="Y22">
-        <v>2.86926955355801E-3</v>
-      </c>
-      <c r="Z22">
-        <v>-1.05728811179973E-3</v>
-      </c>
-      <c r="AA22">
-        <v>1.77335053213012E-4</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>-4.01302772182166E-5</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>1.4303025300158799E-6</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>-2.4655508290694198E-6</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>-3.112904449371E-21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23">
-        <v>0.119873866376949</v>
-      </c>
-      <c r="E23">
-        <v>-0.41641376806076702</v>
-      </c>
-      <c r="F23">
-        <v>0.16759668851376</v>
-      </c>
-      <c r="G23">
-        <v>8.6616443118685105E-2</v>
-      </c>
-      <c r="H23">
-        <v>0.67295183732556796</v>
-      </c>
-      <c r="I23">
-        <v>-0.148107132005867</v>
-      </c>
-      <c r="J23">
-        <v>0.41239190510316898</v>
-      </c>
-      <c r="K23">
-        <v>0.13939372187371901</v>
-      </c>
-      <c r="L23">
-        <v>4.61763497148001E-2</v>
-      </c>
-      <c r="M23">
-        <v>0.17270298972828901</v>
-      </c>
-      <c r="N23">
-        <v>-0.200868258853066</v>
-      </c>
-      <c r="O23">
-        <v>-8.7121419370260397E-2</v>
-      </c>
-      <c r="P23">
-        <v>3.9563986583796701E-2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.12642156613137301</v>
-      </c>
-      <c r="R23">
-        <v>-8.54605693456197E-2</v>
-      </c>
-      <c r="S23">
-        <v>7.3944848475555894E-2</v>
-      </c>
-      <c r="T23">
-        <v>-1.5287615572901E-2</v>
-      </c>
-      <c r="U23">
-        <v>4.3289175687146297E-2</v>
-      </c>
-      <c r="V23">
-        <v>2.1672012771133198E-3</v>
-      </c>
-      <c r="W23">
-        <v>-3.18381302702211E-3</v>
-      </c>
-      <c r="X23">
-        <v>-7.1107892313173704E-4</v>
-      </c>
-      <c r="Y23">
-        <v>1.0545808685482501E-3</v>
-      </c>
-      <c r="Z23">
-        <v>-1.10138776482813E-3</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>-4.3396279813051001E-5</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>-5.1276599829936597E-5</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>-1.37731067497572E-6</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>-2.5627853394902302E-6</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>-3.6736258918691197E-21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24">
-        <v>-0.120472783194291</v>
-      </c>
-      <c r="E24">
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>-0.97299119198008699</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
         <v>-0.74509802610943798</v>
       </c>
-      <c r="F24">
-        <v>0.28044272987899599</v>
-      </c>
-      <c r="G24">
-        <v>-2.8569745965251501E-4</v>
-      </c>
-      <c r="H24">
-        <v>-3.2026314197449703E-2</v>
-      </c>
-      <c r="I24">
-        <v>-0.22017899145113501</v>
-      </c>
-      <c r="J24">
-        <v>-0.156778868138402</v>
-      </c>
-      <c r="K24">
-        <v>0.294789995246659</v>
-      </c>
-      <c r="L24">
-        <v>4.6825705707896598E-2</v>
-      </c>
-      <c r="M24">
-        <v>-0.19866094493990899</v>
-      </c>
-      <c r="N24">
-        <v>0.198897997218106</v>
-      </c>
-      <c r="O24">
-        <v>-0.24426396060747099</v>
-      </c>
-      <c r="P24">
-        <v>2.8782246747089901E-2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.17589275649441</v>
-      </c>
-      <c r="R24">
-        <v>4.6825713979764198E-2</v>
-      </c>
-      <c r="S24">
-        <v>-9.5130938236341306E-2</v>
-      </c>
-      <c r="T24">
-        <v>-8.0461851863136202E-2</v>
-      </c>
-      <c r="U24">
-        <v>-1.16950557006176E-2</v>
-      </c>
-      <c r="V24">
-        <v>-1.3006845989853501E-2</v>
-      </c>
-      <c r="W24">
-        <v>2.1517782992226198E-3</v>
-      </c>
-      <c r="X24">
-        <v>-1.94262129486822E-3</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>7.4406369670132598E-6</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>-5.1462764891177302E-5</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>-3.3068019121578401E-5</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>1.1733764763137499E-5</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>-1.1144179145831799E-6</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>5.0670013789728299E-7</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>3.37493876868089E-22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25">
-        <v>-0.10551739552131099</v>
-      </c>
-      <c r="E25">
-        <v>-0.73446704151912001</v>
-      </c>
-      <c r="F25">
-        <v>0.29513234422490298</v>
-      </c>
-      <c r="G25">
-        <v>-4.4776509699488796E-3</v>
-      </c>
-      <c r="H25">
-        <v>-0.102806624823154</v>
-      </c>
-      <c r="I25">
-        <v>-0.25146559671241198</v>
-      </c>
-      <c r="J25">
-        <v>-0.111705289329718</v>
-      </c>
-      <c r="K25">
-        <v>0.26504356965453102</v>
-      </c>
-      <c r="L25">
-        <v>-2.2245059901172801E-2</v>
-      </c>
-      <c r="M25">
-        <v>2.4956421959490101E-2</v>
-      </c>
-      <c r="N25">
-        <v>-0.16676814383626301</v>
-      </c>
-      <c r="O25">
-        <v>0.35683546180685299</v>
-      </c>
-      <c r="P25">
-        <v>0.19764813151874799</v>
-      </c>
-      <c r="Q25">
-        <v>-1.5435015726225999E-2</v>
-      </c>
-      <c r="R25">
-        <v>9.5187272886279092E-3</v>
-      </c>
-      <c r="S25">
-        <v>-7.9095001153895006E-2</v>
-      </c>
-      <c r="T25">
-        <v>5.78228510104545E-2</v>
-      </c>
-      <c r="U25">
-        <v>-2.2199661964425101E-2</v>
-      </c>
-      <c r="V25">
-        <v>3.9419302230352402E-3</v>
-      </c>
-      <c r="W25">
-        <v>-7.3937837901529501E-4</v>
-      </c>
-      <c r="X25">
-        <v>-1.3835313371681501E-3</v>
-      </c>
-      <c r="Y25">
-        <v>-2.4273223200732001E-3</v>
-      </c>
-      <c r="Z25">
-        <v>1.07833505008789E-4</v>
-      </c>
-      <c r="AA25">
-        <v>-3.07086132144942E-4</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>1.9995931190286701E-5</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>6.7914365747635399E-6</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>2.3669979744761901E-7</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>2.0586221965315599E-21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>-0.77430636641322104</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26">
-        <v>-0.14778198983723401</v>
-      </c>
-      <c r="E26">
-        <v>-0.52082210378197602</v>
-      </c>
-      <c r="F26">
-        <v>0.16906127031337001</v>
-      </c>
-      <c r="G26">
-        <v>-0.31020982523527701</v>
-      </c>
-      <c r="H26">
-        <v>-0.48462109526305203</v>
-      </c>
-      <c r="I26">
-        <v>-0.190127280423948</v>
-      </c>
-      <c r="J26">
-        <v>-0.233131357440337</v>
-      </c>
-      <c r="K26">
-        <v>-0.20723745685002001</v>
-      </c>
-      <c r="L26">
-        <v>0.23603632976045</v>
-      </c>
-      <c r="M26">
-        <v>-1.28410791406897E-2</v>
-      </c>
-      <c r="N26">
-        <v>-0.34577780558925603</v>
-      </c>
-      <c r="O26">
-        <v>-0.12546378951474699</v>
-      </c>
-      <c r="P26">
-        <v>-0.10844626230863599</v>
-      </c>
-      <c r="Q26">
-        <v>-3.9907040240208198E-2</v>
-      </c>
-      <c r="R26">
-        <v>-3.7059705868011203E-2</v>
-      </c>
-      <c r="S26">
-        <v>7.8024285367289795E-2</v>
-      </c>
-      <c r="T26">
-        <v>5.3728388749213702E-3</v>
-      </c>
-      <c r="U26">
-        <v>3.6007240998897801E-2</v>
-      </c>
-      <c r="V26">
-        <v>1.59232627142613E-2</v>
-      </c>
-      <c r="W26">
-        <v>-1.45372834129237E-2</v>
-      </c>
-      <c r="X26">
-        <v>1.18618526131783E-3</v>
-      </c>
-      <c r="Y26">
-        <v>-2.4207240926304901E-4</v>
-      </c>
-      <c r="Z26">
-        <v>-1.3325729126775401E-3</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>5.5125320112006697E-5</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>-4.9997688435072203E-5</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>-3.70372252939833E-6</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>-1.79820731465622E-6</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>-3.11325783974034E-21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="H29">
+        <v>-0.45981574021076699</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29">
+        <v>-0.49149899255909701</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27">
-        <v>7.7548412217682203E-3</v>
-      </c>
-      <c r="E27">
-        <v>-0.195773137843999</v>
-      </c>
-      <c r="F27">
-        <v>0.18107447322127301</v>
-      </c>
-      <c r="G27">
-        <v>-0.45981574021076699</v>
-      </c>
-      <c r="H27">
-        <v>-0.49149899255909701</v>
-      </c>
-      <c r="I27">
-        <v>0.46148429328398999</v>
-      </c>
-      <c r="J27">
-        <v>0.34615382508071701</v>
-      </c>
-      <c r="K27">
-        <v>0.302560945829981</v>
-      </c>
-      <c r="L27">
-        <v>-2.6319252162813899E-2</v>
-      </c>
-      <c r="M27">
-        <v>4.1171763520080402E-2</v>
-      </c>
-      <c r="N27">
-        <v>0.14062611490371801</v>
-      </c>
-      <c r="O27">
-        <v>7.73670608087106E-2</v>
-      </c>
-      <c r="P27">
-        <v>2.70119375868309E-2</v>
-      </c>
-      <c r="Q27">
-        <v>-0.101544399942532</v>
-      </c>
-      <c r="R27">
-        <v>-5.69629113798093E-2</v>
-      </c>
-      <c r="S27">
-        <v>7.9546177459898795E-2</v>
-      </c>
-      <c r="T27">
-        <v>-1.4190412535351899E-2</v>
-      </c>
-      <c r="U27">
-        <v>4.98615638395664E-2</v>
-      </c>
-      <c r="V27">
-        <v>-3.3326095232721299E-3</v>
-      </c>
-      <c r="W27">
-        <v>-4.3709606741975E-3</v>
-      </c>
-      <c r="X27">
-        <v>2.6831846292115001E-3</v>
-      </c>
-      <c r="Y27">
-        <v>1.2870023807846501E-3</v>
-      </c>
-      <c r="Z27">
-        <v>-7.5293066267076501E-4</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>9.3324111186479799E-5</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>-6.7353346052180703E-5</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>3.0183358788372098E-6</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>4.0781671140403498E-8</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>2.0138483314087799E-21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28">
-        <v>1.58662574118307E-2</v>
-      </c>
-      <c r="E28">
-        <v>0.53939989657951204</v>
-      </c>
-      <c r="F28">
-        <v>0.67488419847093695</v>
-      </c>
-      <c r="G28">
-        <v>-0.164841445607602</v>
-      </c>
-      <c r="H28">
-        <v>1.7983445831853601E-2</v>
-      </c>
-      <c r="I28">
+      <c r="L29">
         <v>-0.26850927572043398</v>
       </c>
-      <c r="J28">
-        <v>8.3309977768563602E-3</v>
-      </c>
-      <c r="K28">
-        <v>7.4869192665925604E-3</v>
-      </c>
-      <c r="L28">
-        <v>-0.27913935316516197</v>
-      </c>
-      <c r="M28">
-        <v>-6.0627215702547099E-3</v>
-      </c>
-      <c r="N28">
-        <v>-3.8934736823578002E-2</v>
-      </c>
-      <c r="O28">
-        <v>0.118231533520226</v>
-      </c>
-      <c r="P28">
-        <v>-0.15803977051138299</v>
-      </c>
-      <c r="Q28">
-        <v>6.7416516575155294E-2</v>
-      </c>
-      <c r="R28">
-        <v>2.4562307637300398E-2</v>
-      </c>
-      <c r="S28">
-        <v>-4.1024116860233897E-2</v>
-      </c>
-      <c r="T28">
-        <v>-0.133444172906652</v>
-      </c>
-      <c r="U28">
-        <v>9.8485536985485303E-2</v>
-      </c>
-      <c r="V28">
-        <v>-1.31591218686064E-2</v>
-      </c>
-      <c r="W28">
-        <v>-2.5184746401350301E-2</v>
-      </c>
-      <c r="X28">
-        <v>4.4582895769763597E-3</v>
-      </c>
-      <c r="Y28">
-        <v>3.8821926117961199E-3</v>
-      </c>
-      <c r="Z28">
-        <v>-1.1521126855076401E-3</v>
-      </c>
-      <c r="AA28">
-        <v>2.9811534693846998E-4</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>-5.9238185359651298E-5</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>-1.8173078097054899E-6</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>-1.6130496997801199E-6</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>-2.3710369649951602E-21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29">
-        <v>0.31164724484682199</v>
-      </c>
-      <c r="E29">
-        <v>-0.44595170862908001</v>
-      </c>
-      <c r="F29">
-        <v>0.28630848280087001</v>
-      </c>
-      <c r="G29">
-        <v>0.45413099571670401</v>
-      </c>
-      <c r="H29">
-        <v>-0.186175079203557</v>
-      </c>
-      <c r="I29">
-        <v>0.45300757804256198</v>
-      </c>
-      <c r="J29">
-        <v>0.16302517638008099</v>
-      </c>
-      <c r="K29">
-        <v>0.10635960115263</v>
-      </c>
-      <c r="L29">
-        <v>-5.5327343409655602E-2</v>
-      </c>
-      <c r="M29">
-        <v>7.1640266577346401E-2</v>
+      <c r="M29" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="N29">
-        <v>-0.258247248458918</v>
-      </c>
-      <c r="O29">
-        <v>-0.130098261708883</v>
-      </c>
-      <c r="P29">
-        <v>-3.6268991827238202E-2</v>
-      </c>
-      <c r="Q29">
-        <v>0.15621624112830301</v>
-      </c>
-      <c r="R29">
-        <v>-4.5896424742360702E-3</v>
-      </c>
-      <c r="S29">
-        <v>-0.12567600414764701</v>
-      </c>
-      <c r="T29">
-        <v>-5.5258618892715002E-2</v>
-      </c>
-      <c r="U29">
-        <v>-3.7236085684836898E-2</v>
-      </c>
-      <c r="V29">
-        <v>-1.56058149614876E-2</v>
-      </c>
-      <c r="W29">
-        <v>-3.3197290135038499E-4</v>
-      </c>
-      <c r="X29">
-        <v>-3.31816554257802E-4</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>-5.7545991592672202E-5</v>
-      </c>
-      <c r="Z29">
-        <v>1.6296026618099001E-4</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>9.5729812799032904E-5</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>2.80395832097091E-5</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>8.6419887270503503E-7</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>5.5825622861195404E-7</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>5.7875484651953699E-22</v>
+        <v>-0.45151635841889098</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>